--- a/public/emsileimuhtelife.xlsx
+++ b/public/emsileimuhtelife.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziya\Desktop\wordcardarabıc\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF9F5CD-7A20-4461-8E8B-481E1FDB6816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22289A53-0912-4D18-B75D-5D9403ABAD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1747">
   <si>
     <t>arabic_word</t>
   </si>
@@ -4515,13 +4513,778 @@
   </si>
   <si>
     <t>Üzülmüş</t>
+  </si>
+  <si>
+    <t>لَمْ يَحْزَنْ</t>
+  </si>
+  <si>
+    <t>لَمَّا يَحْزَنْ</t>
+  </si>
+  <si>
+    <t>مَا يَحْزَنُ</t>
+  </si>
+  <si>
+    <t>لَا يَحْزَنُ</t>
+  </si>
+  <si>
+    <t>لَنْ يَحْزَنَ</t>
+  </si>
+  <si>
+    <t>لِيَحْزَنْ</t>
+  </si>
+  <si>
+    <t>لَايَحْزَنْ</t>
+  </si>
+  <si>
+    <t>اِحْزَنْ</t>
+  </si>
+  <si>
+    <t>لَا تَحْزَنْ</t>
+  </si>
+  <si>
+    <t>مَحْزَنٌ</t>
+  </si>
+  <si>
+    <t>مِحْزُنٌ</t>
+  </si>
+  <si>
+    <t>حُزْنَةً</t>
+  </si>
+  <si>
+    <t>حِزْنَةً</t>
+  </si>
+  <si>
+    <t>حُزَيْنٌ</t>
+  </si>
+  <si>
+    <t>حُزْنِيٌّ</t>
+  </si>
+  <si>
+    <t>حَزَّانٌ</t>
+  </si>
+  <si>
+    <t>أَحْزَنُ</t>
+  </si>
+  <si>
+    <t>مَا أَحْزَنَهُ</t>
+  </si>
+  <si>
+    <t>وَ أَحْزِنْ بِهِ</t>
+  </si>
+  <si>
+    <t>نَدِمَ</t>
+  </si>
+  <si>
+    <t>يَنْدَمُ</t>
+  </si>
+  <si>
+    <t>نَدَمًا</t>
+  </si>
+  <si>
+    <t>نَادِمٌ</t>
+  </si>
+  <si>
+    <t>مَنْدُومٌ</t>
+  </si>
+  <si>
+    <t>لَمْ يَندَمْ</t>
+  </si>
+  <si>
+    <t>لَمَّا يَنْدَمْ</t>
+  </si>
+  <si>
+    <t>مَا يَنْدَمُ</t>
+  </si>
+  <si>
+    <t>لَا يَنْدَمُ</t>
+  </si>
+  <si>
+    <t>لَنْ يَنْدَمَ</t>
+  </si>
+  <si>
+    <t>لِيَنْدَمْ</t>
+  </si>
+  <si>
+    <t>لَايَنْدَمْ</t>
+  </si>
+  <si>
+    <t>اِنْدَمْ</t>
+  </si>
+  <si>
+    <t>لَا تَنْدَمْ</t>
+  </si>
+  <si>
+    <t>مَنْدَمٌ</t>
+  </si>
+  <si>
+    <t>مِنْدَمٌ</t>
+  </si>
+  <si>
+    <t>نَدَامَةً</t>
+  </si>
+  <si>
+    <t>نِدَامَةً</t>
+  </si>
+  <si>
+    <t>نُدَيْمٌ</t>
+  </si>
+  <si>
+    <t>نَدَمِيٌّ</t>
+  </si>
+  <si>
+    <t>نَدَّامٌ</t>
+  </si>
+  <si>
+    <t>أَنْدَمُ</t>
+  </si>
+  <si>
+    <t>مَا أَنْدَمَهُ</t>
+  </si>
+  <si>
+    <t>وَأَنْدِمْ بِهِ</t>
+  </si>
+  <si>
+    <t>نَفِدَ</t>
+  </si>
+  <si>
+    <t>يَنْفَدُ</t>
+  </si>
+  <si>
+    <t>نَفْدًا</t>
+  </si>
+  <si>
+    <t>نَافِدٌ</t>
+  </si>
+  <si>
+    <t>مَنْفُودٌ</t>
+  </si>
+  <si>
+    <t>لَم يَنْفَدْ</t>
+  </si>
+  <si>
+    <t>لَمَّا يَنْفَدْ</t>
+  </si>
+  <si>
+    <t>مَا يَنْفَدُ</t>
+  </si>
+  <si>
+    <t>لَا يَنْفَدُ</t>
+  </si>
+  <si>
+    <t>لَنْيَنْفَدَ</t>
+  </si>
+  <si>
+    <t>لِيَنْفَدْ</t>
+  </si>
+  <si>
+    <t>لَايَنْفَدْ</t>
+  </si>
+  <si>
+    <t>اِنْفَدْ</t>
+  </si>
+  <si>
+    <t>لَاتَنْفَدْ</t>
+  </si>
+  <si>
+    <t>مَنْفَدٌ</t>
+  </si>
+  <si>
+    <t>مِنْفَدٌ</t>
+  </si>
+  <si>
+    <t>نَفْدَةً</t>
+  </si>
+  <si>
+    <t>نِفْدَةً</t>
+  </si>
+  <si>
+    <t>نُفَيْدٌ</t>
+  </si>
+  <si>
+    <t>نَفْدِيٌّ</t>
+  </si>
+  <si>
+    <t>نَفَّادٌ</t>
+  </si>
+  <si>
+    <t>أَنْفَدُ</t>
+  </si>
+  <si>
+    <t>مَا أَنْفَدَهُ</t>
+  </si>
+  <si>
+    <t>وَ أَنْفِدْبِهِ</t>
+  </si>
+  <si>
+    <t>دَعَا</t>
+  </si>
+  <si>
+    <t>يَدْعُو</t>
+  </si>
+  <si>
+    <t>دَعْوًا</t>
+  </si>
+  <si>
+    <t>دَاعٍ</t>
+  </si>
+  <si>
+    <t>مَدْعُوٌّ</t>
+  </si>
+  <si>
+    <t>لَمْ يَدْعُ</t>
+  </si>
+  <si>
+    <t>لَمَّ يَدْعُ</t>
+  </si>
+  <si>
+    <t>مَا يَدْعُو</t>
+  </si>
+  <si>
+    <t>لَا يَدْعُو</t>
+  </si>
+  <si>
+    <t>لَنْ يَدْعُوَ</t>
+  </si>
+  <si>
+    <t>لِيَدْعُ</t>
+  </si>
+  <si>
+    <t>لَايَدْعُ</t>
+  </si>
+  <si>
+    <t>اُدْعُ</t>
+  </si>
+  <si>
+    <t>لَا تَدْعُ</t>
+  </si>
+  <si>
+    <t>مَدْعًى</t>
+  </si>
+  <si>
+    <t>مِدْعًى</t>
+  </si>
+  <si>
+    <t>دَعْوَةً</t>
+  </si>
+  <si>
+    <t>دِعْوَةً</t>
+  </si>
+  <si>
+    <t>دُعَىٌّ</t>
+  </si>
+  <si>
+    <t>دَعْوِىٌّ</t>
+  </si>
+  <si>
+    <t>دَعَّاءٌ</t>
+  </si>
+  <si>
+    <t>أَدْعَى</t>
+  </si>
+  <si>
+    <t>مَاأَدْعَاهُ</t>
+  </si>
+  <si>
+    <t>وَأَدْعِبِهِ</t>
+  </si>
+  <si>
+    <t>رَمَى</t>
+  </si>
+  <si>
+    <t>يَرْمِى</t>
+  </si>
+  <si>
+    <t>رَمْيًا</t>
+  </si>
+  <si>
+    <t>رَامٍ</t>
+  </si>
+  <si>
+    <t>مَرْمِىٌّ</t>
+  </si>
+  <si>
+    <t>لَمْيَرْمِ</t>
+  </si>
+  <si>
+    <t>لَمَّايَرْمِ</t>
+  </si>
+  <si>
+    <t>مَايَرْمِى</t>
+  </si>
+  <si>
+    <t>لَايَرْمِى</t>
+  </si>
+  <si>
+    <t>لَنْيَرْمِيَ</t>
+  </si>
+  <si>
+    <t>لِيَرْمِ</t>
+  </si>
+  <si>
+    <t>لَايَرْمِ</t>
+  </si>
+  <si>
+    <t>اِرْمِ</t>
+  </si>
+  <si>
+    <t>لَاتَرْمِ</t>
+  </si>
+  <si>
+    <t>مَرْمًى</t>
+  </si>
+  <si>
+    <t>مِرْمًى</t>
+  </si>
+  <si>
+    <t>رَمْيَةً</t>
+  </si>
+  <si>
+    <t>رِمْيَةً</t>
+  </si>
+  <si>
+    <t>رُمَىٌّ</t>
+  </si>
+  <si>
+    <t>رَمْيٌّ</t>
+  </si>
+  <si>
+    <t>رَمَّاءٌ</t>
+  </si>
+  <si>
+    <t>أَرْمَى</t>
+  </si>
+  <si>
+    <t>مَاأَرْمَاهُ</t>
+  </si>
+  <si>
+    <t>وَأَرْمِبِهِ</t>
+  </si>
+  <si>
+    <t>وَجَلَ</t>
+  </si>
+  <si>
+    <t>يَوْجُلُ</t>
+  </si>
+  <si>
+    <t>وَجْلً</t>
+  </si>
+  <si>
+    <t>وَاجِلٌ</t>
+  </si>
+  <si>
+    <t>مَوْجُولٌ لَهُ</t>
+  </si>
+  <si>
+    <t>لَمْيَوْجُلْ</t>
+  </si>
+  <si>
+    <t>لَمَّايَوْجُلْ</t>
+  </si>
+  <si>
+    <t>مَايَوْجُلُ</t>
+  </si>
+  <si>
+    <t>لَايَوْجُلُ</t>
+  </si>
+  <si>
+    <t>لَنْيَوْجُلَ</t>
+  </si>
+  <si>
+    <t>لِيَوْجُلْ</t>
+  </si>
+  <si>
+    <t>لَايَوْجُلْ</t>
+  </si>
+  <si>
+    <t>اُوجُلْ</t>
+  </si>
+  <si>
+    <t>لَاتَوْجُلْ</t>
+  </si>
+  <si>
+    <t>مَوْجِلٌ</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>وَجْلَةً</t>
+  </si>
+  <si>
+    <t>وِجْلَةً</t>
+  </si>
+  <si>
+    <t>وُجَيْلٌ</t>
+  </si>
+  <si>
+    <t>وَجْلِيٌّ</t>
+  </si>
+  <si>
+    <t>وَجَّالٌ</t>
+  </si>
+  <si>
+    <t>أَوْجَلُ</t>
+  </si>
+  <si>
+    <t>مَاأَوْجَلَهُ</t>
+  </si>
+  <si>
+    <t>وَأَوْجِلْبِهِ</t>
+  </si>
+  <si>
+    <t>Pişman oldu</t>
+  </si>
+  <si>
+    <t>Pişman oluyor</t>
+  </si>
+  <si>
+    <t>Pişmanlık</t>
+  </si>
+  <si>
+    <t>Pişman olan</t>
+  </si>
+  <si>
+    <t>Pişman olunan</t>
+  </si>
+  <si>
+    <t>Pişman olmadı</t>
+  </si>
+  <si>
+    <t>Henüz pişman olmadı</t>
+  </si>
+  <si>
+    <t>Pişman olmuyor</t>
+  </si>
+  <si>
+    <t>Pişman olmaz</t>
+  </si>
+  <si>
+    <t>Asla pişman olmaz</t>
+  </si>
+  <si>
+    <t>Pişman olsun</t>
+  </si>
+  <si>
+    <t>Pişman olmasın</t>
+  </si>
+  <si>
+    <t>Pişman ol</t>
+  </si>
+  <si>
+    <t>Pişman olma</t>
+  </si>
+  <si>
+    <t>Pişmanlık zamanı,mekanı,pişmanlık</t>
+  </si>
+  <si>
+    <t>Pişmanlık aleti</t>
+  </si>
+  <si>
+    <t>Bir kere pişman olmak</t>
+  </si>
+  <si>
+    <t>Bir çeşit pişman olmak</t>
+  </si>
+  <si>
+    <t>Pişman olmacık</t>
+  </si>
+  <si>
+    <t>Pişmanlığa mensub</t>
+  </si>
+  <si>
+    <t>Çokça pişman olan</t>
+  </si>
+  <si>
+    <t>Ziyade pişman olan</t>
+  </si>
+  <si>
+    <t>Acayip pişman oldu</t>
+  </si>
+  <si>
+    <t>Ne acayip pişman oldu</t>
+  </si>
+  <si>
+    <t>Tükendi</t>
+  </si>
+  <si>
+    <t>Tükeniyor</t>
+  </si>
+  <si>
+    <t>Tükenmek</t>
+  </si>
+  <si>
+    <t>Tükenen</t>
+  </si>
+  <si>
+    <t>Tükenilen</t>
+  </si>
+  <si>
+    <t>Tükenmedi</t>
+  </si>
+  <si>
+    <t>Henüz tükenmedi</t>
+  </si>
+  <si>
+    <t>Tükenmiyor</t>
+  </si>
+  <si>
+    <t>Tükenmez</t>
+  </si>
+  <si>
+    <t>Asla tükenmez</t>
+  </si>
+  <si>
+    <t>Tükensin</t>
+  </si>
+  <si>
+    <t>Tükenmesin</t>
+  </si>
+  <si>
+    <t>Tüken</t>
+  </si>
+  <si>
+    <t>Tükenme</t>
+  </si>
+  <si>
+    <t>Tükenme zamanı,tükenme mekanı,tükenmek</t>
+  </si>
+  <si>
+    <t>Tükenme aleti</t>
+  </si>
+  <si>
+    <t>Bir kere tükenme</t>
+  </si>
+  <si>
+    <t>Bir çeşit tükenme</t>
+  </si>
+  <si>
+    <t>Tükenmecik</t>
+  </si>
+  <si>
+    <t>Tükenmeye mensub</t>
+  </si>
+  <si>
+    <t>Çokça tükenen</t>
+  </si>
+  <si>
+    <t>En fazla tükenen</t>
+  </si>
+  <si>
+    <t>Acayip tükendi</t>
+  </si>
+  <si>
+    <t>Ne acayip tükendi</t>
+  </si>
+  <si>
+    <t>Çağırdı/Davet etti</t>
+  </si>
+  <si>
+    <t>Davet eder</t>
+  </si>
+  <si>
+    <t>Davet etmek</t>
+  </si>
+  <si>
+    <t>Davet edici</t>
+  </si>
+  <si>
+    <t>Davet olunmuş</t>
+  </si>
+  <si>
+    <t>Davet etmedi</t>
+  </si>
+  <si>
+    <t>Henüz davet etmedi</t>
+  </si>
+  <si>
+    <t>Davet etmez</t>
+  </si>
+  <si>
+    <t>Davet etmeyecek</t>
+  </si>
+  <si>
+    <t>Asla davet etmeyecek</t>
+  </si>
+  <si>
+    <t>Davet etsin</t>
+  </si>
+  <si>
+    <t>Davet etmesin</t>
+  </si>
+  <si>
+    <t>Dvaet et</t>
+  </si>
+  <si>
+    <t>Davet etme</t>
+  </si>
+  <si>
+    <t>Davet aleti</t>
+  </si>
+  <si>
+    <t>Bir kere davet</t>
+  </si>
+  <si>
+    <t>Bir nevi davet</t>
+  </si>
+  <si>
+    <t>Davetcik</t>
+  </si>
+  <si>
+    <t>Davete mensup</t>
+  </si>
+  <si>
+    <t>Ziyade davetçi</t>
+  </si>
+  <si>
+    <t>Daha fazla davet etti</t>
+  </si>
+  <si>
+    <t>Acaib davet eti</t>
+  </si>
+  <si>
+    <t>Ne acaib davet etti</t>
+  </si>
+  <si>
+    <t>Attı</t>
+  </si>
+  <si>
+    <t>Atar-atacak</t>
+  </si>
+  <si>
+    <t>Atmak</t>
+  </si>
+  <si>
+    <t>Atıcı</t>
+  </si>
+  <si>
+    <t>Atılmış</t>
+  </si>
+  <si>
+    <t>Atmadı</t>
+  </si>
+  <si>
+    <t>Henüz atmadı</t>
+  </si>
+  <si>
+    <t>Atmaz</t>
+  </si>
+  <si>
+    <t>Atmayacak</t>
+  </si>
+  <si>
+    <t>Asla atmayacak</t>
+  </si>
+  <si>
+    <t>Atsın</t>
+  </si>
+  <si>
+    <t>Atmasın</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>Atma</t>
+  </si>
+  <si>
+    <t>Atış aleti/ Silah</t>
+  </si>
+  <si>
+    <t>Bir kere atmak</t>
+  </si>
+  <si>
+    <t>Bir nevi atmak</t>
+  </si>
+  <si>
+    <t>Atmacık</t>
+  </si>
+  <si>
+    <t>Atışa mensup</t>
+  </si>
+  <si>
+    <t>Ziyade atıcı</t>
+  </si>
+  <si>
+    <t>Daha fazla atan</t>
+  </si>
+  <si>
+    <t>Acaib attı</t>
+  </si>
+  <si>
+    <t>Ne acayip Attı</t>
+  </si>
+  <si>
+    <t>Korktu</t>
+  </si>
+  <si>
+    <t>Korkar</t>
+  </si>
+  <si>
+    <t>Korkmak</t>
+  </si>
+  <si>
+    <t>Korkucu</t>
+  </si>
+  <si>
+    <t>Korkulmuş</t>
+  </si>
+  <si>
+    <t>Korkmadı</t>
+  </si>
+  <si>
+    <t>Henüz korkmadı</t>
+  </si>
+  <si>
+    <t>Korkmaz</t>
+  </si>
+  <si>
+    <t>Korkmayacak</t>
+  </si>
+  <si>
+    <t>Asla korkmayacak</t>
+  </si>
+  <si>
+    <t>Korksun</t>
+  </si>
+  <si>
+    <t>Korkmasın</t>
+  </si>
+  <si>
+    <t>Kork</t>
+  </si>
+  <si>
+    <t>Korkma</t>
+  </si>
+  <si>
+    <t>Bir kere korkmak</t>
+  </si>
+  <si>
+    <t>Bir nevi korkmak</t>
+  </si>
+  <si>
+    <t>Korkmacık</t>
+  </si>
+  <si>
+    <t>Korkuya mensup</t>
+  </si>
+  <si>
+    <t>Ziyade korkucu</t>
+  </si>
+  <si>
+    <t>Acaib korktu</t>
+  </si>
+  <si>
+    <t>Ne acaib korktu</t>
+  </si>
+  <si>
+    <t>Daha fazla korktu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5093,19 +5856,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
-  <dimension ref="A1:B750"/>
+  <dimension ref="A1:B889"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.42578125" defaultRowHeight="34.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="33"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="48.42578125" style="2"/>
+    <col min="1" max="1" width="27.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="48.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5113,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="33.75">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5121,7 +5884,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -5129,7 +5892,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2">
       <c r="A4" s="13" t="s">
         <v>807</v>
       </c>
@@ -5137,7 +5900,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2">
       <c r="A5" s="13" t="s">
         <v>808</v>
       </c>
@@ -5145,7 +5908,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2">
       <c r="A6" s="13" t="s">
         <v>809</v>
       </c>
@@ -5153,7 +5916,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -5161,7 +5924,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -5169,7 +5932,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -5177,7 +5940,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -5185,7 +5948,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -5193,7 +5956,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -5201,7 +5964,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -5209,7 +5972,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -5217,7 +5980,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -5225,7 +5988,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2">
       <c r="A16" s="13" t="s">
         <v>810</v>
       </c>
@@ -5233,7 +5996,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2">
       <c r="A17" s="13" t="s">
         <v>811</v>
       </c>
@@ -5241,7 +6004,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2">
       <c r="A18" s="13" t="s">
         <v>812</v>
       </c>
@@ -5249,7 +6012,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2">
       <c r="A19" s="13" t="s">
         <v>813</v>
       </c>
@@ -5257,7 +6020,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2">
       <c r="A20" s="13" t="s">
         <v>814</v>
       </c>
@@ -5265,7 +6028,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2">
       <c r="A21" s="13" t="s">
         <v>815</v>
       </c>
@@ -5273,7 +6036,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2">
       <c r="A22" s="13" t="s">
         <v>816</v>
       </c>
@@ -5281,7 +6044,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2">
       <c r="A23" s="13" t="s">
         <v>817</v>
       </c>
@@ -5289,7 +6052,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -5297,7 +6060,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:2" ht="33.75" thickBot="1">
       <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
@@ -5305,7 +6068,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" ht="33.75">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
@@ -5313,7 +6076,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
@@ -5321,7 +6084,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2">
       <c r="A28" s="13" t="s">
         <v>818</v>
       </c>
@@ -5329,7 +6092,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2">
       <c r="A29" s="13" t="s">
         <v>819</v>
       </c>
@@ -5337,7 +6100,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2">
       <c r="A30" s="13" t="s">
         <v>820</v>
       </c>
@@ -5345,7 +6108,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
@@ -5353,7 +6116,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
@@ -5361,7 +6124,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2">
       <c r="A33" s="7" t="s">
         <v>19</v>
       </c>
@@ -5369,7 +6132,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2">
       <c r="A34" s="7" t="s">
         <v>20</v>
       </c>
@@ -5377,7 +6140,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2">
       <c r="A35" s="7" t="s">
         <v>21</v>
       </c>
@@ -5385,7 +6148,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
         <v>22</v>
       </c>
@@ -5393,7 +6156,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
         <v>23</v>
       </c>
@@ -5401,7 +6164,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
         <v>24</v>
       </c>
@@ -5409,7 +6172,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
@@ -5417,7 +6180,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2">
       <c r="A40" s="13" t="s">
         <v>821</v>
       </c>
@@ -5425,7 +6188,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2">
       <c r="A41" s="13" t="s">
         <v>822</v>
       </c>
@@ -5433,7 +6196,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2">
       <c r="A42" s="13" t="s">
         <v>823</v>
       </c>
@@ -5441,7 +6204,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2">
       <c r="A43" s="13" t="s">
         <v>824</v>
       </c>
@@ -5449,7 +6212,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2">
       <c r="A44" s="13" t="s">
         <v>825</v>
       </c>
@@ -5457,7 +6220,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2">
       <c r="A45" s="13" t="s">
         <v>826</v>
       </c>
@@ -5465,7 +6228,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2">
       <c r="A46" s="13" t="s">
         <v>827</v>
       </c>
@@ -5473,7 +6236,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2">
       <c r="A47" s="13" t="s">
         <v>828</v>
       </c>
@@ -5481,7 +6244,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
         <v>26</v>
       </c>
@@ -5489,7 +6252,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:2" ht="33.75" thickBot="1">
       <c r="A49" s="8" t="s">
         <v>27</v>
       </c>
@@ -5497,7 +6260,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" ht="33.75">
       <c r="A50" s="5" t="s">
         <v>28</v>
       </c>
@@ -5505,7 +6268,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -5513,7 +6276,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2">
       <c r="A52" s="13" t="s">
         <v>829</v>
       </c>
@@ -5521,7 +6284,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2">
       <c r="A53" s="13" t="s">
         <v>830</v>
       </c>
@@ -5529,7 +6292,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2">
       <c r="A54" s="13" t="s">
         <v>831</v>
       </c>
@@ -5537,7 +6300,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2">
       <c r="A55" s="7" t="s">
         <v>30</v>
       </c>
@@ -5545,7 +6308,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
         <v>31</v>
       </c>
@@ -5553,7 +6316,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2">
       <c r="A57" s="7" t="s">
         <v>32</v>
       </c>
@@ -5561,7 +6324,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2">
       <c r="A58" s="7" t="s">
         <v>33</v>
       </c>
@@ -5569,7 +6332,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2">
       <c r="A59" s="7" t="s">
         <v>34</v>
       </c>
@@ -5577,7 +6340,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
         <v>35</v>
       </c>
@@ -5585,7 +6348,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
         <v>36</v>
       </c>
@@ -5593,7 +6356,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
         <v>37</v>
       </c>
@@ -5601,7 +6364,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
         <v>38</v>
       </c>
@@ -5609,7 +6372,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2">
       <c r="A64" s="13" t="s">
         <v>832</v>
       </c>
@@ -5617,7 +6380,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:2">
       <c r="A65" s="13" t="s">
         <v>833</v>
       </c>
@@ -5625,7 +6388,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:2">
       <c r="A66" s="13" t="s">
         <v>834</v>
       </c>
@@ -5633,7 +6396,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:2">
       <c r="A67" s="13" t="s">
         <v>835</v>
       </c>
@@ -5641,7 +6404,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:2">
       <c r="A68" s="13" t="s">
         <v>836</v>
       </c>
@@ -5649,7 +6412,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:2">
       <c r="A69" s="13" t="s">
         <v>837</v>
       </c>
@@ -5657,7 +6420,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:2">
       <c r="A70" s="13" t="s">
         <v>838</v>
       </c>
@@ -5665,7 +6428,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:2">
       <c r="A71" s="13" t="s">
         <v>839</v>
       </c>
@@ -5673,7 +6436,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
         <v>39</v>
       </c>
@@ -5681,7 +6444,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:2" ht="33.75" thickBot="1">
       <c r="A73" s="8" t="s">
         <v>40</v>
       </c>
@@ -5689,7 +6452,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:2" ht="33.75">
       <c r="A74" s="5" t="s">
         <v>41</v>
       </c>
@@ -5697,7 +6460,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
         <v>42</v>
       </c>
@@ -5705,7 +6468,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:2">
       <c r="A76" s="13" t="s">
         <v>840</v>
       </c>
@@ -5713,7 +6476,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:2">
       <c r="A77" s="13" t="s">
         <v>841</v>
       </c>
@@ -5721,7 +6484,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:2">
       <c r="A78" s="13" t="s">
         <v>842</v>
       </c>
@@ -5729,7 +6492,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:2">
       <c r="A79" s="7" t="s">
         <v>43</v>
       </c>
@@ -5737,7 +6500,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
         <v>44</v>
       </c>
@@ -5745,7 +6508,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:2">
       <c r="A81" s="7" t="s">
         <v>45</v>
       </c>
@@ -5753,7 +6516,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:2">
       <c r="A82" s="7" t="s">
         <v>46</v>
       </c>
@@ -5761,7 +6524,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:2">
       <c r="A83" s="7" t="s">
         <v>47</v>
       </c>
@@ -5769,7 +6532,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:2">
       <c r="A84" s="6" t="s">
         <v>48</v>
       </c>
@@ -5777,7 +6540,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:2">
       <c r="A85" s="6" t="s">
         <v>49</v>
       </c>
@@ -5785,7 +6548,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
         <v>50</v>
       </c>
@@ -5793,7 +6556,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:2">
       <c r="A87" s="6" t="s">
         <v>51</v>
       </c>
@@ -5801,7 +6564,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:2">
       <c r="A88" s="13" t="s">
         <v>843</v>
       </c>
@@ -5809,7 +6572,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:2">
       <c r="A89" s="13" t="s">
         <v>844</v>
       </c>
@@ -5817,7 +6580,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:2">
       <c r="A90" s="13" t="s">
         <v>845</v>
       </c>
@@ -5825,7 +6588,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:2">
       <c r="A91" s="13" t="s">
         <v>846</v>
       </c>
@@ -5833,7 +6596,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:2">
       <c r="A92" s="13" t="s">
         <v>847</v>
       </c>
@@ -5841,7 +6604,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:2">
       <c r="A93" s="13" t="s">
         <v>848</v>
       </c>
@@ -5849,7 +6612,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:2">
       <c r="A94" s="13" t="s">
         <v>849</v>
       </c>
@@ -5857,7 +6620,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:2">
       <c r="A95" s="13" t="s">
         <v>850</v>
       </c>
@@ -5865,7 +6628,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:2">
       <c r="A96" s="6" t="s">
         <v>52</v>
       </c>
@@ -5873,7 +6636,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:2" ht="33.75" thickBot="1">
       <c r="A97" s="8" t="s">
         <v>53</v>
       </c>
@@ -5881,7 +6644,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:2" ht="33.75">
       <c r="A98" s="5" t="s">
         <v>54</v>
       </c>
@@ -5889,7 +6652,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
         <v>55</v>
       </c>
@@ -5897,7 +6660,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:2">
       <c r="A100" s="13" t="s">
         <v>851</v>
       </c>
@@ -5905,7 +6668,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:2">
       <c r="A101" s="13" t="s">
         <v>852</v>
       </c>
@@ -5913,7 +6676,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:2">
       <c r="A102" s="13" t="s">
         <v>853</v>
       </c>
@@ -5921,7 +6684,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:2">
       <c r="A103" s="7" t="s">
         <v>56</v>
       </c>
@@ -5929,7 +6692,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:2">
       <c r="A104" s="6" t="s">
         <v>57</v>
       </c>
@@ -5937,7 +6700,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:2">
       <c r="A105" s="7" t="s">
         <v>58</v>
       </c>
@@ -5945,7 +6708,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:2">
       <c r="A106" s="7" t="s">
         <v>59</v>
       </c>
@@ -5953,7 +6716,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:2">
       <c r="A107" s="7" t="s">
         <v>60</v>
       </c>
@@ -5961,7 +6724,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:2">
       <c r="A108" s="6" t="s">
         <v>61</v>
       </c>
@@ -5969,7 +6732,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:2">
       <c r="A109" s="6" t="s">
         <v>62</v>
       </c>
@@ -5977,7 +6740,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:2">
       <c r="A110" s="6" t="s">
         <v>63</v>
       </c>
@@ -5985,7 +6748,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:2">
       <c r="A111" s="6" t="s">
         <v>64</v>
       </c>
@@ -5993,7 +6756,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:2">
       <c r="A112" s="13" t="s">
         <v>854</v>
       </c>
@@ -6001,7 +6764,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:2">
       <c r="A113" s="13" t="s">
         <v>855</v>
       </c>
@@ -6009,7 +6772,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:2">
       <c r="A114" s="13" t="s">
         <v>856</v>
       </c>
@@ -6017,7 +6780,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:2">
       <c r="A115" s="13" t="s">
         <v>857</v>
       </c>
@@ -6025,7 +6788,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:2">
       <c r="A116" s="13" t="s">
         <v>858</v>
       </c>
@@ -6033,7 +6796,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:2">
       <c r="A117" s="13" t="s">
         <v>859</v>
       </c>
@@ -6041,7 +6804,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:2">
       <c r="A118" s="13" t="s">
         <v>860</v>
       </c>
@@ -6049,7 +6812,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:2">
       <c r="A119" s="13" t="s">
         <v>861</v>
       </c>
@@ -6057,7 +6820,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:2">
       <c r="A120" s="6" t="s">
         <v>65</v>
       </c>
@@ -6065,7 +6828,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:2" ht="33.75" thickBot="1">
       <c r="A121" s="8" t="s">
         <v>66</v>
       </c>
@@ -6073,7 +6836,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:2" ht="33.75">
       <c r="A122" s="5" t="s">
         <v>67</v>
       </c>
@@ -6081,7 +6844,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:2">
       <c r="A123" s="6" t="s">
         <v>68</v>
       </c>
@@ -6089,7 +6852,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:2">
       <c r="A124" s="13" t="s">
         <v>862</v>
       </c>
@@ -6097,7 +6860,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:2">
       <c r="A125" s="13" t="s">
         <v>863</v>
       </c>
@@ -6105,7 +6868,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:2">
       <c r="A126" s="13" t="s">
         <v>864</v>
       </c>
@@ -6113,7 +6876,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:2">
       <c r="A127" s="7" t="s">
         <v>69</v>
       </c>
@@ -6121,7 +6884,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
         <v>70</v>
       </c>
@@ -6129,7 +6892,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:2">
       <c r="A129" s="7" t="s">
         <v>71</v>
       </c>
@@ -6137,7 +6900,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:2">
       <c r="A130" s="7" t="s">
         <v>72</v>
       </c>
@@ -6145,7 +6908,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:2">
       <c r="A131" s="7" t="s">
         <v>73</v>
       </c>
@@ -6153,7 +6916,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:2">
       <c r="A132" s="6" t="s">
         <v>74</v>
       </c>
@@ -6161,7 +6924,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:2">
       <c r="A133" s="6" t="s">
         <v>75</v>
       </c>
@@ -6169,7 +6932,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:2">
       <c r="A134" s="6" t="s">
         <v>76</v>
       </c>
@@ -6177,7 +6940,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:2">
       <c r="A135" s="6" t="s">
         <v>77</v>
       </c>
@@ -6185,7 +6948,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:2">
       <c r="A136" s="13" t="s">
         <v>864</v>
       </c>
@@ -6193,7 +6956,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:2">
       <c r="A137" s="13" t="s">
         <v>865</v>
       </c>
@@ -6201,7 +6964,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:2">
       <c r="A138" s="13" t="s">
         <v>866</v>
       </c>
@@ -6209,7 +6972,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:2">
       <c r="A139" s="13" t="s">
         <v>867</v>
       </c>
@@ -6217,7 +6980,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:2">
       <c r="A140" s="13" t="s">
         <v>868</v>
       </c>
@@ -6225,7 +6988,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:2">
       <c r="A141" s="13" t="s">
         <v>869</v>
       </c>
@@ -6233,7 +6996,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:2">
       <c r="A142" s="13" t="s">
         <v>870</v>
       </c>
@@ -6241,7 +7004,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:2">
       <c r="A143" s="13" t="s">
         <v>871</v>
       </c>
@@ -6249,7 +7012,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:2">
       <c r="A144" s="6" t="s">
         <v>78</v>
       </c>
@@ -6257,7 +7020,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:2" ht="33.75" thickBot="1">
       <c r="A145" s="8" t="s">
         <v>79</v>
       </c>
@@ -6265,7 +7028,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:2" ht="33.75">
       <c r="A146" s="5" t="s">
         <v>80</v>
       </c>
@@ -6273,7 +7036,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:2">
       <c r="A147" s="6" t="s">
         <v>81</v>
       </c>
@@ -6281,7 +7044,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:2">
       <c r="A148" s="13" t="s">
         <v>872</v>
       </c>
@@ -6289,7 +7052,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:2">
       <c r="A149" s="13" t="s">
         <v>873</v>
       </c>
@@ -6297,7 +7060,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:2">
       <c r="A150" s="13" t="s">
         <v>874</v>
       </c>
@@ -6305,7 +7068,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:2">
       <c r="A151" s="7" t="s">
         <v>82</v>
       </c>
@@ -6313,7 +7076,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:2">
       <c r="A152" s="6" t="s">
         <v>83</v>
       </c>
@@ -6321,7 +7084,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:2">
       <c r="A153" s="7" t="s">
         <v>84</v>
       </c>
@@ -6329,7 +7092,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:2">
       <c r="A154" s="7" t="s">
         <v>85</v>
       </c>
@@ -6337,7 +7100,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:2">
       <c r="A155" s="7" t="s">
         <v>86</v>
       </c>
@@ -6345,7 +7108,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:2">
       <c r="A156" s="6" t="s">
         <v>87</v>
       </c>
@@ -6353,7 +7116,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:2">
       <c r="A157" s="6" t="s">
         <v>88</v>
       </c>
@@ -6361,7 +7124,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:2">
       <c r="A158" s="6" t="s">
         <v>89</v>
       </c>
@@ -6369,7 +7132,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:2">
       <c r="A159" s="6" t="s">
         <v>90</v>
       </c>
@@ -6377,7 +7140,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:2">
       <c r="A160" s="13" t="s">
         <v>875</v>
       </c>
@@ -6385,7 +7148,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:2">
       <c r="A161" s="13" t="s">
         <v>876</v>
       </c>
@@ -6393,7 +7156,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:2">
       <c r="A162" s="13" t="s">
         <v>877</v>
       </c>
@@ -6401,7 +7164,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:2">
       <c r="A163" s="13" t="s">
         <v>878</v>
       </c>
@@ -6409,7 +7172,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:2">
       <c r="A164" s="13" t="s">
         <v>879</v>
       </c>
@@ -6417,7 +7180,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:2">
       <c r="A165" s="13" t="s">
         <v>880</v>
       </c>
@@ -6425,7 +7188,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:2">
       <c r="A166" s="13" t="s">
         <v>881</v>
       </c>
@@ -6433,7 +7196,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:2">
       <c r="A167" s="13" t="s">
         <v>882</v>
       </c>
@@ -6441,7 +7204,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:2">
       <c r="A168" s="6" t="s">
         <v>91</v>
       </c>
@@ -6449,7 +7212,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:2" ht="33.75" thickBot="1">
       <c r="A169" s="8" t="s">
         <v>92</v>
       </c>
@@ -6457,7 +7220,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:2" ht="33.75">
       <c r="A170" s="5" t="s">
         <v>93</v>
       </c>
@@ -6465,7 +7228,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:2">
       <c r="A171" s="6" t="s">
         <v>94</v>
       </c>
@@ -6473,7 +7236,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:2">
       <c r="A172" s="13" t="s">
         <v>883</v>
       </c>
@@ -6481,7 +7244,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:2">
       <c r="A173" s="13" t="s">
         <v>884</v>
       </c>
@@ -6489,7 +7252,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:2">
       <c r="A174" s="13" t="s">
         <v>885</v>
       </c>
@@ -6497,7 +7260,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:2">
       <c r="A175" s="7" t="s">
         <v>95</v>
       </c>
@@ -6505,7 +7268,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:2">
       <c r="A176" s="6" t="s">
         <v>96</v>
       </c>
@@ -6513,7 +7276,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:2">
       <c r="A177" s="7" t="s">
         <v>97</v>
       </c>
@@ -6521,7 +7284,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:2">
       <c r="A178" s="7" t="s">
         <v>98</v>
       </c>
@@ -6529,7 +7292,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:2">
       <c r="A179" s="7" t="s">
         <v>99</v>
       </c>
@@ -6537,7 +7300,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:2">
       <c r="A180" s="6" t="s">
         <v>100</v>
       </c>
@@ -6545,7 +7308,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:2">
       <c r="A181" s="6" t="s">
         <v>101</v>
       </c>
@@ -6553,7 +7316,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:2">
       <c r="A182" s="6" t="s">
         <v>102</v>
       </c>
@@ -6561,7 +7324,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:2">
       <c r="A183" s="6" t="s">
         <v>103</v>
       </c>
@@ -6569,7 +7332,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:2">
       <c r="A184" s="13" t="s">
         <v>886</v>
       </c>
@@ -6577,7 +7340,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:2">
       <c r="A185" s="13" t="s">
         <v>887</v>
       </c>
@@ -6585,7 +7348,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:2">
       <c r="A186" s="13" t="s">
         <v>888</v>
       </c>
@@ -6593,7 +7356,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:2">
       <c r="A187" s="13" t="s">
         <v>889</v>
       </c>
@@ -6601,7 +7364,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:2">
       <c r="A188" s="13" t="s">
         <v>890</v>
       </c>
@@ -6609,7 +7372,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:2">
       <c r="A189" s="13" t="s">
         <v>891</v>
       </c>
@@ -6617,7 +7380,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:2">
       <c r="A190" s="13" t="s">
         <v>892</v>
       </c>
@@ -6625,7 +7388,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:2">
       <c r="A191" s="13" t="s">
         <v>893</v>
       </c>
@@ -6633,7 +7396,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:2">
       <c r="A192" s="6" t="s">
         <v>104</v>
       </c>
@@ -6641,7 +7404,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:2" ht="33.75" thickBot="1">
       <c r="A193" s="8" t="s">
         <v>105</v>
       </c>
@@ -6649,7 +7412,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:2" ht="33.75">
       <c r="A194" s="5" t="s">
         <v>106</v>
       </c>
@@ -6657,7 +7420,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:2">
       <c r="A195" s="6" t="s">
         <v>107</v>
       </c>
@@ -6665,7 +7428,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:2">
       <c r="A196" s="13" t="s">
         <v>894</v>
       </c>
@@ -6673,7 +7436,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:2">
       <c r="A197" s="13" t="s">
         <v>895</v>
       </c>
@@ -6681,7 +7444,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:2">
       <c r="A198" s="13" t="s">
         <v>896</v>
       </c>
@@ -6689,7 +7452,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:2">
       <c r="A199" s="7" t="s">
         <v>108</v>
       </c>
@@ -6697,7 +7460,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:2">
       <c r="A200" s="6" t="s">
         <v>109</v>
       </c>
@@ -6705,7 +7468,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:2">
       <c r="A201" s="7" t="s">
         <v>110</v>
       </c>
@@ -6713,7 +7476,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:2">
       <c r="A202" s="7" t="s">
         <v>111</v>
       </c>
@@ -6721,7 +7484,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:2">
       <c r="A203" s="7" t="s">
         <v>112</v>
       </c>
@@ -6729,7 +7492,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:2">
       <c r="A204" s="6" t="s">
         <v>113</v>
       </c>
@@ -6737,7 +7500,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:2">
       <c r="A205" s="6" t="s">
         <v>114</v>
       </c>
@@ -6745,7 +7508,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:2">
       <c r="A206" s="6" t="s">
         <v>115</v>
       </c>
@@ -6753,7 +7516,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:2">
       <c r="A207" s="6" t="s">
         <v>116</v>
       </c>
@@ -6761,7 +7524,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:2">
       <c r="A208" s="13" t="s">
         <v>897</v>
       </c>
@@ -6769,7 +7532,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:2">
       <c r="A209" s="13" t="s">
         <v>898</v>
       </c>
@@ -6777,7 +7540,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:2">
       <c r="A210" s="13" t="s">
         <v>899</v>
       </c>
@@ -6785,7 +7548,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:2">
       <c r="A211" s="13" t="s">
         <v>900</v>
       </c>
@@ -6793,7 +7556,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:2">
       <c r="A212" s="13" t="s">
         <v>901</v>
       </c>
@@ -6801,7 +7564,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:2">
       <c r="A213" s="13" t="s">
         <v>902</v>
       </c>
@@ -6809,7 +7572,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:2">
       <c r="A214" s="13" t="s">
         <v>903</v>
       </c>
@@ -6817,7 +7580,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:2">
       <c r="A215" s="13" t="s">
         <v>904</v>
       </c>
@@ -6825,7 +7588,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:2">
       <c r="A216" s="6" t="s">
         <v>117</v>
       </c>
@@ -6833,7 +7596,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:2" ht="33.75" thickBot="1">
       <c r="A217" s="8" t="s">
         <v>118</v>
       </c>
@@ -6841,7 +7604,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:2" ht="33.75">
       <c r="A218" s="5" t="s">
         <v>119</v>
       </c>
@@ -6849,7 +7612,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:2">
       <c r="A219" s="6" t="s">
         <v>120</v>
       </c>
@@ -6857,7 +7620,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:2">
       <c r="A220" s="13" t="s">
         <v>905</v>
       </c>
@@ -6865,7 +7628,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:2">
       <c r="A221" s="13" t="s">
         <v>906</v>
       </c>
@@ -6873,7 +7636,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:2">
       <c r="A222" s="13" t="s">
         <v>907</v>
       </c>
@@ -6881,7 +7644,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:2">
       <c r="A223" s="7" t="s">
         <v>121</v>
       </c>
@@ -6889,7 +7652,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:2">
       <c r="A224" s="6" t="s">
         <v>122</v>
       </c>
@@ -6897,7 +7660,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:2">
       <c r="A225" s="7" t="s">
         <v>123</v>
       </c>
@@ -6905,7 +7668,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:2">
       <c r="A226" s="7" t="s">
         <v>124</v>
       </c>
@@ -6913,7 +7676,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:2">
       <c r="A227" s="7" t="s">
         <v>125</v>
       </c>
@@ -6921,7 +7684,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:2">
       <c r="A228" s="6" t="s">
         <v>126</v>
       </c>
@@ -6929,7 +7692,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:2">
       <c r="A229" s="6" t="s">
         <v>127</v>
       </c>
@@ -6937,7 +7700,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:2">
       <c r="A230" s="6" t="s">
         <v>128</v>
       </c>
@@ -6945,7 +7708,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:2">
       <c r="A231" s="6" t="s">
         <v>129</v>
       </c>
@@ -6953,7 +7716,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:2">
       <c r="A232" s="13" t="s">
         <v>908</v>
       </c>
@@ -6961,7 +7724,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:2">
       <c r="A233" s="13" t="s">
         <v>909</v>
       </c>
@@ -6969,7 +7732,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:2">
       <c r="A234" s="13" t="s">
         <v>910</v>
       </c>
@@ -6977,7 +7740,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:2">
       <c r="A235" s="13" t="s">
         <v>911</v>
       </c>
@@ -6985,7 +7748,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:2">
       <c r="A236" s="13" t="s">
         <v>912</v>
       </c>
@@ -6993,7 +7756,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:2">
       <c r="A237" s="13" t="s">
         <v>913</v>
       </c>
@@ -7001,7 +7764,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:2">
       <c r="A238" s="13" t="s">
         <v>914</v>
       </c>
@@ -7009,7 +7772,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:2">
       <c r="A239" s="13" t="s">
         <v>915</v>
       </c>
@@ -7017,7 +7780,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:2">
       <c r="A240" s="6" t="s">
         <v>130</v>
       </c>
@@ -7025,7 +7788,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:2" ht="33.75" thickBot="1">
       <c r="A241" s="8" t="s">
         <v>131</v>
       </c>
@@ -7033,7 +7796,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:2" ht="33.75">
       <c r="A242" s="5" t="s">
         <v>132</v>
       </c>
@@ -7041,7 +7804,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:2">
       <c r="A243" s="6" t="s">
         <v>133</v>
       </c>
@@ -7049,7 +7812,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:2">
       <c r="A244" s="13" t="s">
         <v>916</v>
       </c>
@@ -7057,7 +7820,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:2">
       <c r="A245" s="13" t="s">
         <v>917</v>
       </c>
@@ -7065,7 +7828,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:2">
       <c r="A246" s="13" t="s">
         <v>918</v>
       </c>
@@ -7073,7 +7836,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:2">
       <c r="A247" s="7" t="s">
         <v>134</v>
       </c>
@@ -7081,7 +7844,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:2">
       <c r="A248" s="6" t="s">
         <v>135</v>
       </c>
@@ -7089,7 +7852,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:2">
       <c r="A249" s="7" t="s">
         <v>136</v>
       </c>
@@ -7097,7 +7860,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:2">
       <c r="A250" s="7" t="s">
         <v>137</v>
       </c>
@@ -7105,7 +7868,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:2">
       <c r="A251" s="7" t="s">
         <v>138</v>
       </c>
@@ -7113,7 +7876,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:2">
       <c r="A252" s="6" t="s">
         <v>139</v>
       </c>
@@ -7121,7 +7884,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:2">
       <c r="A253" s="6" t="s">
         <v>140</v>
       </c>
@@ -7129,7 +7892,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:2">
       <c r="A254" s="6" t="s">
         <v>141</v>
       </c>
@@ -7137,7 +7900,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:2">
       <c r="A255" s="6" t="s">
         <v>142</v>
       </c>
@@ -7145,7 +7908,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:2">
       <c r="A256" s="13" t="s">
         <v>919</v>
       </c>
@@ -7153,7 +7916,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:2">
       <c r="A257" s="13" t="s">
         <v>920</v>
       </c>
@@ -7161,7 +7924,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:2">
       <c r="A258" s="13" t="s">
         <v>921</v>
       </c>
@@ -7169,7 +7932,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:2">
       <c r="A259" s="13" t="s">
         <v>922</v>
       </c>
@@ -7177,7 +7940,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:2">
       <c r="A260" s="13" t="s">
         <v>923</v>
       </c>
@@ -7185,7 +7948,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:2">
       <c r="A261" s="13" t="s">
         <v>924</v>
       </c>
@@ -7193,7 +7956,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:2">
       <c r="A262" s="13" t="s">
         <v>925</v>
       </c>
@@ -7201,7 +7964,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:2">
       <c r="A263" s="13" t="s">
         <v>926</v>
       </c>
@@ -7209,7 +7972,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:2">
       <c r="A264" s="6" t="s">
         <v>143</v>
       </c>
@@ -7217,7 +7980,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:2" ht="33.75" thickBot="1">
       <c r="A265" s="8" t="s">
         <v>144</v>
       </c>
@@ -7225,7 +7988,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:2" ht="33.75">
       <c r="A266" s="5" t="s">
         <v>145</v>
       </c>
@@ -7233,7 +7996,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:2">
       <c r="A267" s="6" t="s">
         <v>146</v>
       </c>
@@ -7241,7 +8004,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:2">
       <c r="A268" s="13" t="s">
         <v>927</v>
       </c>
@@ -7249,7 +8012,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:2">
       <c r="A269" s="13" t="s">
         <v>928</v>
       </c>
@@ -7257,7 +8020,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:2">
       <c r="A270" s="13" t="s">
         <v>929</v>
       </c>
@@ -7265,7 +8028,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:2">
       <c r="A271" s="7" t="s">
         <v>147</v>
       </c>
@@ -7273,7 +8036,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:2">
       <c r="A272" s="6" t="s">
         <v>148</v>
       </c>
@@ -7281,7 +8044,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:2">
       <c r="A273" s="7" t="s">
         <v>149</v>
       </c>
@@ -7289,7 +8052,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:2">
       <c r="A274" s="7" t="s">
         <v>150</v>
       </c>
@@ -7297,7 +8060,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:2">
       <c r="A275" s="7" t="s">
         <v>151</v>
       </c>
@@ -7305,7 +8068,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:2">
       <c r="A276" s="6" t="s">
         <v>152</v>
       </c>
@@ -7313,7 +8076,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:2">
       <c r="A277" s="6" t="s">
         <v>153</v>
       </c>
@@ -7321,7 +8084,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:2">
       <c r="A278" s="6" t="s">
         <v>154</v>
       </c>
@@ -7329,7 +8092,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:2">
       <c r="A279" s="6" t="s">
         <v>155</v>
       </c>
@@ -7337,7 +8100,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:2">
       <c r="A280" s="13" t="s">
         <v>930</v>
       </c>
@@ -7345,7 +8108,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:2">
       <c r="A281" s="13" t="s">
         <v>931</v>
       </c>
@@ -7353,7 +8116,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:2">
       <c r="A282" s="13" t="s">
         <v>932</v>
       </c>
@@ -7361,7 +8124,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:2">
       <c r="A283" s="13" t="s">
         <v>933</v>
       </c>
@@ -7369,7 +8132,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:2">
       <c r="A284" s="13" t="s">
         <v>934</v>
       </c>
@@ -7377,7 +8140,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:2">
       <c r="A285" s="13" t="s">
         <v>935</v>
       </c>
@@ -7385,7 +8148,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:2">
       <c r="A286" s="13" t="s">
         <v>936</v>
       </c>
@@ -7393,7 +8156,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:2">
       <c r="A287" s="13" t="s">
         <v>937</v>
       </c>
@@ -7401,7 +8164,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:2">
       <c r="A288" s="6" t="s">
         <v>156</v>
       </c>
@@ -7409,7 +8172,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:2" ht="33.75" thickBot="1">
       <c r="A289" s="8" t="s">
         <v>157</v>
       </c>
@@ -7417,7 +8180,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:2" ht="33.75">
       <c r="A290" s="5" t="s">
         <v>158</v>
       </c>
@@ -7425,7 +8188,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:2">
       <c r="A291" s="6" t="s">
         <v>159</v>
       </c>
@@ -7433,7 +8196,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:2">
       <c r="A292" s="13" t="s">
         <v>938</v>
       </c>
@@ -7441,7 +8204,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:2">
       <c r="A293" s="13" t="s">
         <v>939</v>
       </c>
@@ -7449,7 +8212,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:2">
       <c r="A294" s="13" t="s">
         <v>940</v>
       </c>
@@ -7457,7 +8220,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:2">
       <c r="A295" s="7" t="s">
         <v>160</v>
       </c>
@@ -7465,7 +8228,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:2">
       <c r="A296" s="6" t="s">
         <v>161</v>
       </c>
@@ -7473,7 +8236,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:2">
       <c r="A297" s="7" t="s">
         <v>162</v>
       </c>
@@ -7481,7 +8244,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:2">
       <c r="A298" s="7" t="s">
         <v>163</v>
       </c>
@@ -7489,7 +8252,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:2">
       <c r="A299" s="7" t="s">
         <v>164</v>
       </c>
@@ -7497,7 +8260,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:2">
       <c r="A300" s="6" t="s">
         <v>165</v>
       </c>
@@ -7505,7 +8268,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:2">
       <c r="A301" s="6" t="s">
         <v>166</v>
       </c>
@@ -7513,7 +8276,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:2">
       <c r="A302" s="6" t="s">
         <v>167</v>
       </c>
@@ -7521,7 +8284,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:2">
       <c r="A303" s="6" t="s">
         <v>168</v>
       </c>
@@ -7529,7 +8292,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:2">
       <c r="A304" s="13" t="s">
         <v>941</v>
       </c>
@@ -7537,7 +8300,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:2">
       <c r="A305" s="13" t="s">
         <v>942</v>
       </c>
@@ -7545,7 +8308,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:2">
       <c r="A306" s="13" t="s">
         <v>943</v>
       </c>
@@ -7553,7 +8316,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:2">
       <c r="A307" s="13" t="s">
         <v>944</v>
       </c>
@@ -7561,7 +8324,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:2">
       <c r="A308" s="13" t="s">
         <v>945</v>
       </c>
@@ -7569,7 +8332,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:2">
       <c r="A309" s="13" t="s">
         <v>946</v>
       </c>
@@ -7577,7 +8340,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:2">
       <c r="A310" s="13" t="s">
         <v>947</v>
       </c>
@@ -7585,7 +8348,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:2">
       <c r="A311" s="13" t="s">
         <v>948</v>
       </c>
@@ -7593,7 +8356,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:2">
       <c r="A312" s="6" t="s">
         <v>169</v>
       </c>
@@ -7601,7 +8364,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:2" ht="33.75" thickBot="1">
       <c r="A313" s="8" t="s">
         <v>170</v>
       </c>
@@ -7609,7 +8372,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:2" ht="33.75">
       <c r="A314" s="5" t="s">
         <v>171</v>
       </c>
@@ -7617,7 +8380,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:2">
       <c r="A315" s="6" t="s">
         <v>172</v>
       </c>
@@ -7625,7 +8388,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:2">
       <c r="A316" s="13" t="s">
         <v>949</v>
       </c>
@@ -7633,7 +8396,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:2">
       <c r="A317" s="13" t="s">
         <v>950</v>
       </c>
@@ -7641,7 +8404,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:2">
       <c r="A318" s="13" t="s">
         <v>951</v>
       </c>
@@ -7649,7 +8412,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:2">
       <c r="A319" s="7" t="s">
         <v>173</v>
       </c>
@@ -7657,7 +8420,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:2">
       <c r="A320" s="6" t="s">
         <v>174</v>
       </c>
@@ -7665,7 +8428,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:2">
       <c r="A321" s="7" t="s">
         <v>175</v>
       </c>
@@ -7673,7 +8436,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:2">
       <c r="A322" s="7" t="s">
         <v>176</v>
       </c>
@@ -7681,7 +8444,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:2">
       <c r="A323" s="7" t="s">
         <v>177</v>
       </c>
@@ -7689,7 +8452,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:2">
       <c r="A324" s="6" t="s">
         <v>178</v>
       </c>
@@ -7697,7 +8460,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:2">
       <c r="A325" s="6" t="s">
         <v>179</v>
       </c>
@@ -7705,7 +8468,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:2">
       <c r="A326" s="6" t="s">
         <v>180</v>
       </c>
@@ -7713,7 +8476,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:2">
       <c r="A327" s="6" t="s">
         <v>181</v>
       </c>
@@ -7721,7 +8484,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:2">
       <c r="A328" s="13" t="s">
         <v>952</v>
       </c>
@@ -7729,7 +8492,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:2">
       <c r="A329" s="13" t="s">
         <v>953</v>
       </c>
@@ -7737,7 +8500,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:2">
       <c r="A330" s="13" t="s">
         <v>954</v>
       </c>
@@ -7745,7 +8508,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:2">
       <c r="A331" s="13" t="s">
         <v>955</v>
       </c>
@@ -7753,7 +8516,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:2">
       <c r="A332" s="13" t="s">
         <v>956</v>
       </c>
@@ -7761,7 +8524,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:2">
       <c r="A333" s="13" t="s">
         <v>957</v>
       </c>
@@ -7769,7 +8532,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:2">
       <c r="A334" s="13" t="s">
         <v>958</v>
       </c>
@@ -7777,7 +8540,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:2">
       <c r="A335" s="13" t="s">
         <v>959</v>
       </c>
@@ -7785,7 +8548,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:2">
       <c r="A336" s="6" t="s">
         <v>182</v>
       </c>
@@ -7793,7 +8556,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:2" ht="33.75" thickBot="1">
       <c r="A337" s="8" t="s">
         <v>183</v>
       </c>
@@ -7801,7 +8564,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:2" ht="33.75">
       <c r="A338" s="5" t="s">
         <v>184</v>
       </c>
@@ -7809,7 +8572,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:2">
       <c r="A339" s="6" t="s">
         <v>185</v>
       </c>
@@ -7817,7 +8580,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:2">
       <c r="A340" s="13" t="s">
         <v>960</v>
       </c>
@@ -7825,7 +8588,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:2">
       <c r="A341" s="13" t="s">
         <v>961</v>
       </c>
@@ -7833,7 +8596,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:2">
       <c r="A342" s="13" t="s">
         <v>962</v>
       </c>
@@ -7841,7 +8604,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:2">
       <c r="A343" s="7" t="s">
         <v>186</v>
       </c>
@@ -7849,7 +8612,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:2">
       <c r="A344" s="6" t="s">
         <v>187</v>
       </c>
@@ -7857,7 +8620,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:2">
       <c r="A345" s="7" t="s">
         <v>188</v>
       </c>
@@ -7865,7 +8628,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:2">
       <c r="A346" s="7" t="s">
         <v>189</v>
       </c>
@@ -7873,7 +8636,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:2">
       <c r="A347" s="7" t="s">
         <v>190</v>
       </c>
@@ -7881,7 +8644,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:2">
       <c r="A348" s="6" t="s">
         <v>191</v>
       </c>
@@ -7889,7 +8652,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:2">
       <c r="A349" s="6" t="s">
         <v>192</v>
       </c>
@@ -7897,7 +8660,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:2">
       <c r="A350" s="6" t="s">
         <v>193</v>
       </c>
@@ -7905,7 +8668,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:2">
       <c r="A351" s="6" t="s">
         <v>194</v>
       </c>
@@ -7913,7 +8676,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:2">
       <c r="A352" s="13" t="s">
         <v>963</v>
       </c>
@@ -7921,7 +8684,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:2">
       <c r="A353" s="13" t="s">
         <v>964</v>
       </c>
@@ -7929,7 +8692,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:2">
       <c r="A354" s="13" t="s">
         <v>965</v>
       </c>
@@ -7937,7 +8700,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:2">
       <c r="A355" s="13" t="s">
         <v>966</v>
       </c>
@@ -7945,7 +8708,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:2">
       <c r="A356" s="13" t="s">
         <v>967</v>
       </c>
@@ -7953,7 +8716,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:2">
       <c r="A357" s="13" t="s">
         <v>968</v>
       </c>
@@ -7961,7 +8724,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:2">
       <c r="A358" s="13" t="s">
         <v>969</v>
       </c>
@@ -7969,7 +8732,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:2">
       <c r="A359" s="13" t="s">
         <v>970</v>
       </c>
@@ -7977,7 +8740,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:2">
       <c r="A360" s="6" t="s">
         <v>195</v>
       </c>
@@ -7985,7 +8748,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="361" spans="1:2" ht="33.75" thickBot="1">
       <c r="A361" s="8" t="s">
         <v>196</v>
       </c>
@@ -7993,7 +8756,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:2" ht="33.75">
       <c r="A362" s="5" t="s">
         <v>197</v>
       </c>
@@ -8001,7 +8764,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:2">
       <c r="A363" s="6" t="s">
         <v>198</v>
       </c>
@@ -8009,7 +8772,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:2">
       <c r="A364" s="13" t="s">
         <v>971</v>
       </c>
@@ -8017,7 +8780,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:2">
       <c r="A365" s="13" t="s">
         <v>972</v>
       </c>
@@ -8025,7 +8788,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:2">
       <c r="A366" s="13" t="s">
         <v>973</v>
       </c>
@@ -8033,7 +8796,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:2">
       <c r="A367" s="7" t="s">
         <v>199</v>
       </c>
@@ -8041,7 +8804,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:2">
       <c r="A368" s="6" t="s">
         <v>200</v>
       </c>
@@ -8049,7 +8812,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:2">
       <c r="A369" s="7" t="s">
         <v>201</v>
       </c>
@@ -8057,7 +8820,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:2">
       <c r="A370" s="7" t="s">
         <v>202</v>
       </c>
@@ -8065,7 +8828,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:2">
       <c r="A371" s="7" t="s">
         <v>203</v>
       </c>
@@ -8073,7 +8836,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:2">
       <c r="A372" s="6" t="s">
         <v>204</v>
       </c>
@@ -8081,7 +8844,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:2">
       <c r="A373" s="6" t="s">
         <v>205</v>
       </c>
@@ -8089,7 +8852,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:2">
       <c r="A374" s="6" t="s">
         <v>206</v>
       </c>
@@ -8097,7 +8860,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:2">
       <c r="A375" s="6" t="s">
         <v>207</v>
       </c>
@@ -8105,7 +8868,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:2">
       <c r="A376" s="13" t="s">
         <v>974</v>
       </c>
@@ -8113,7 +8876,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:2">
       <c r="A377" s="13" t="s">
         <v>975</v>
       </c>
@@ -8121,7 +8884,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:2">
       <c r="A378" s="13" t="s">
         <v>976</v>
       </c>
@@ -8129,7 +8892,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:2">
       <c r="A379" s="13" t="s">
         <v>977</v>
       </c>
@@ -8137,7 +8900,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:2">
       <c r="A380" s="13" t="s">
         <v>978</v>
       </c>
@@ -8145,7 +8908,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:2">
       <c r="A381" s="13" t="s">
         <v>979</v>
       </c>
@@ -8153,7 +8916,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:2">
       <c r="A382" s="13" t="s">
         <v>980</v>
       </c>
@@ -8161,7 +8924,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:2">
       <c r="A383" s="13" t="s">
         <v>981</v>
       </c>
@@ -8169,7 +8932,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:2">
       <c r="A384" s="6" t="s">
         <v>208</v>
       </c>
@@ -8177,7 +8940,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="385" spans="1:2" ht="33.75" thickBot="1">
       <c r="A385" s="8" t="s">
         <v>209</v>
       </c>
@@ -8185,7 +8948,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:2" ht="33.75">
       <c r="A386" s="5" t="s">
         <v>210</v>
       </c>
@@ -8193,7 +8956,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:2">
       <c r="A387" s="6" t="s">
         <v>211</v>
       </c>
@@ -8201,7 +8964,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:2">
       <c r="A388" s="13" t="s">
         <v>982</v>
       </c>
@@ -8209,7 +8972,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:2">
       <c r="A389" s="13" t="s">
         <v>983</v>
       </c>
@@ -8217,7 +8980,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:2">
       <c r="A390" s="13" t="s">
         <v>984</v>
       </c>
@@ -8225,7 +8988,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:2">
       <c r="A391" s="7" t="s">
         <v>212</v>
       </c>
@@ -8233,7 +8996,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:2">
       <c r="A392" s="6" t="s">
         <v>213</v>
       </c>
@@ -8241,7 +9004,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:2">
       <c r="A393" s="7" t="s">
         <v>214</v>
       </c>
@@ -8249,7 +9012,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:2">
       <c r="A394" s="7" t="s">
         <v>215</v>
       </c>
@@ -8257,7 +9020,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:2">
       <c r="A395" s="7" t="s">
         <v>216</v>
       </c>
@@ -8265,7 +9028,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:2">
       <c r="A396" s="6" t="s">
         <v>217</v>
       </c>
@@ -8273,7 +9036,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:2">
       <c r="A397" s="6" t="s">
         <v>218</v>
       </c>
@@ -8281,7 +9044,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:2">
       <c r="A398" s="6" t="s">
         <v>219</v>
       </c>
@@ -8289,7 +9052,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:2">
       <c r="A399" s="6" t="s">
         <v>220</v>
       </c>
@@ -8297,7 +9060,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:2">
       <c r="A400" s="13" t="s">
         <v>985</v>
       </c>
@@ -8305,7 +9068,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:2">
       <c r="A401" s="13" t="s">
         <v>986</v>
       </c>
@@ -8313,7 +9076,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:2">
       <c r="A402" s="13" t="s">
         <v>987</v>
       </c>
@@ -8321,7 +9084,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:2">
       <c r="A403" s="13" t="s">
         <v>988</v>
       </c>
@@ -8329,7 +9092,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:2">
       <c r="A404" s="13" t="s">
         <v>989</v>
       </c>
@@ -8337,7 +9100,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:2">
       <c r="A405" s="13" t="s">
         <v>990</v>
       </c>
@@ -8345,7 +9108,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:2">
       <c r="A406" s="13" t="s">
         <v>991</v>
       </c>
@@ -8353,7 +9116,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:2">
       <c r="A407" s="13" t="s">
         <v>992</v>
       </c>
@@ -8361,7 +9124,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:2">
       <c r="A408" s="6" t="s">
         <v>221</v>
       </c>
@@ -8369,7 +9132,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="409" spans="1:2" ht="33.75" thickBot="1">
       <c r="A409" s="8" t="s">
         <v>222</v>
       </c>
@@ -8377,7 +9140,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:2" ht="33.75">
       <c r="A410" s="5" t="s">
         <v>223</v>
       </c>
@@ -8385,7 +9148,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:2">
       <c r="A411" s="6" t="s">
         <v>224</v>
       </c>
@@ -8393,7 +9156,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:2">
       <c r="A412" s="13" t="s">
         <v>993</v>
       </c>
@@ -8401,7 +9164,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:2">
       <c r="A413" s="13" t="s">
         <v>994</v>
       </c>
@@ -8409,7 +9172,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:2">
       <c r="A414" s="13" t="s">
         <v>995</v>
       </c>
@@ -8417,7 +9180,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:2">
       <c r="A415" s="7" t="s">
         <v>225</v>
       </c>
@@ -8425,7 +9188,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:2">
       <c r="A416" s="6" t="s">
         <v>226</v>
       </c>
@@ -8433,7 +9196,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:2">
       <c r="A417" s="7" t="s">
         <v>227</v>
       </c>
@@ -8441,7 +9204,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:2">
       <c r="A418" s="7" t="s">
         <v>228</v>
       </c>
@@ -8449,7 +9212,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:2">
       <c r="A419" s="7" t="s">
         <v>229</v>
       </c>
@@ -8457,7 +9220,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:2">
       <c r="A420" s="6" t="s">
         <v>230</v>
       </c>
@@ -8465,7 +9228,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:2">
       <c r="A421" s="6" t="s">
         <v>231</v>
       </c>
@@ -8473,7 +9236,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:2">
       <c r="A422" s="6" t="s">
         <v>232</v>
       </c>
@@ -8481,7 +9244,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:2">
       <c r="A423" s="6" t="s">
         <v>233</v>
       </c>
@@ -8489,7 +9252,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:2">
       <c r="A424" s="13" t="s">
         <v>996</v>
       </c>
@@ -8497,7 +9260,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:2">
       <c r="A425" s="13" t="s">
         <v>997</v>
       </c>
@@ -8505,7 +9268,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:2">
       <c r="A426" s="13" t="s">
         <v>998</v>
       </c>
@@ -8513,7 +9276,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:2">
       <c r="A427" s="13" t="s">
         <v>999</v>
       </c>
@@ -8521,7 +9284,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:2">
       <c r="A428" s="13" t="s">
         <v>1000</v>
       </c>
@@ -8529,7 +9292,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:2">
       <c r="A429" s="13" t="s">
         <v>1001</v>
       </c>
@@ -8537,7 +9300,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:2">
       <c r="A430" s="13" t="s">
         <v>1002</v>
       </c>
@@ -8545,7 +9308,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:2">
       <c r="A431" s="13" t="s">
         <v>1003</v>
       </c>
@@ -8553,7 +9316,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:2">
       <c r="A432" s="6" t="s">
         <v>234</v>
       </c>
@@ -8561,7 +9324,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="433" spans="1:2" ht="33.75" thickBot="1">
       <c r="A433" s="8" t="s">
         <v>235</v>
       </c>
@@ -8569,7 +9332,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:2" ht="33.75">
       <c r="A434" s="5" t="s">
         <v>236</v>
       </c>
@@ -8577,7 +9340,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:2">
       <c r="A435" s="6" t="s">
         <v>237</v>
       </c>
@@ -8585,7 +9348,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:2">
       <c r="A436" s="13" t="s">
         <v>1004</v>
       </c>
@@ -8593,7 +9356,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:2">
       <c r="A437" s="13" t="s">
         <v>1005</v>
       </c>
@@ -8601,7 +9364,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:2">
       <c r="A438" s="13" t="s">
         <v>1006</v>
       </c>
@@ -8609,7 +9372,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:2">
       <c r="A439" s="7" t="s">
         <v>238</v>
       </c>
@@ -8617,7 +9380,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:2">
       <c r="A440" s="6" t="s">
         <v>239</v>
       </c>
@@ -8625,7 +9388,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:2">
       <c r="A441" s="7" t="s">
         <v>240</v>
       </c>
@@ -8633,7 +9396,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:2">
       <c r="A442" s="7" t="s">
         <v>241</v>
       </c>
@@ -8641,7 +9404,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:2">
       <c r="A443" s="7" t="s">
         <v>242</v>
       </c>
@@ -8649,7 +9412,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:2">
       <c r="A444" s="6" t="s">
         <v>243</v>
       </c>
@@ -8657,7 +9420,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:2">
       <c r="A445" s="6" t="s">
         <v>244</v>
       </c>
@@ -8665,7 +9428,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:2">
       <c r="A446" s="6" t="s">
         <v>245</v>
       </c>
@@ -8673,7 +9436,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:2">
       <c r="A447" s="6" t="s">
         <v>246</v>
       </c>
@@ -8681,7 +9444,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:2">
       <c r="A448" s="13" t="s">
         <v>1007</v>
       </c>
@@ -8689,7 +9452,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:2">
       <c r="A449" s="13" t="s">
         <v>1008</v>
       </c>
@@ -8697,7 +9460,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:2">
       <c r="A450" s="13" t="s">
         <v>1009</v>
       </c>
@@ -8705,7 +9468,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:2">
       <c r="A451" s="13" t="s">
         <v>1010</v>
       </c>
@@ -8713,7 +9476,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:2">
       <c r="A452" s="13" t="s">
         <v>1011</v>
       </c>
@@ -8721,7 +9484,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:2">
       <c r="A453" s="13" t="s">
         <v>1012</v>
       </c>
@@ -8729,7 +9492,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:2">
       <c r="A454" s="13" t="s">
         <v>1013</v>
       </c>
@@ -8737,7 +9500,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:2">
       <c r="A455" s="13" t="s">
         <v>1014</v>
       </c>
@@ -8745,7 +9508,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:2">
       <c r="A456" s="6" t="s">
         <v>247</v>
       </c>
@@ -8753,7 +9516,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="457" spans="1:2" ht="33.75" thickBot="1">
       <c r="A457" s="8" t="s">
         <v>248</v>
       </c>
@@ -8761,7 +9524,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:2" ht="33.75">
       <c r="A458" s="5" t="s">
         <v>249</v>
       </c>
@@ -8769,7 +9532,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:2">
       <c r="A459" s="6" t="s">
         <v>250</v>
       </c>
@@ -8777,7 +9540,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:2">
       <c r="A460" s="13" t="s">
         <v>1015</v>
       </c>
@@ -8785,7 +9548,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:2">
       <c r="A461" s="13" t="s">
         <v>1016</v>
       </c>
@@ -8793,7 +9556,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:2">
       <c r="A462" s="13" t="s">
         <v>1017</v>
       </c>
@@ -8801,7 +9564,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:2">
       <c r="A463" s="7" t="s">
         <v>251</v>
       </c>
@@ -8809,7 +9572,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:2">
       <c r="A464" s="6" t="s">
         <v>252</v>
       </c>
@@ -8817,7 +9580,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:2">
       <c r="A465" s="7" t="s">
         <v>253</v>
       </c>
@@ -8825,7 +9588,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:2">
       <c r="A466" s="7" t="s">
         <v>254</v>
       </c>
@@ -8833,7 +9596,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:2">
       <c r="A467" s="7" t="s">
         <v>255</v>
       </c>
@@ -8841,7 +9604,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:2">
       <c r="A468" s="6" t="s">
         <v>256</v>
       </c>
@@ -8849,7 +9612,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:2">
       <c r="A469" s="6" t="s">
         <v>257</v>
       </c>
@@ -8857,7 +9620,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:2">
       <c r="A470" s="6" t="s">
         <v>258</v>
       </c>
@@ -8865,7 +9628,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:2">
       <c r="A471" s="6" t="s">
         <v>259</v>
       </c>
@@ -8873,7 +9636,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:2">
       <c r="A472" s="13" t="s">
         <v>1018</v>
       </c>
@@ -8881,7 +9644,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:2">
       <c r="A473" s="13" t="s">
         <v>1019</v>
       </c>
@@ -8889,7 +9652,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:2">
       <c r="A474" s="13" t="s">
         <v>1020</v>
       </c>
@@ -8897,7 +9660,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:2">
       <c r="A475" s="13" t="s">
         <v>1021</v>
       </c>
@@ -8905,7 +9668,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:2">
       <c r="A476" s="13" t="s">
         <v>1022</v>
       </c>
@@ -8913,7 +9676,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:2">
       <c r="A477" s="13" t="s">
         <v>1023</v>
       </c>
@@ -8921,7 +9684,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:2">
       <c r="A478" s="13" t="s">
         <v>1024</v>
       </c>
@@ -8929,7 +9692,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:2">
       <c r="A479" s="13" t="s">
         <v>1025</v>
       </c>
@@ -8937,7 +9700,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:2">
       <c r="A480" s="6" t="s">
         <v>260</v>
       </c>
@@ -8945,7 +9708,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="481" spans="1:2" ht="33.75" thickBot="1">
       <c r="A481" s="8" t="s">
         <v>261</v>
       </c>
@@ -8953,7 +9716,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:2" ht="33.75">
       <c r="A482" s="5" t="s">
         <v>262</v>
       </c>
@@ -8961,7 +9724,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:2">
       <c r="A483" s="6" t="s">
         <v>263</v>
       </c>
@@ -8969,7 +9732,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:2">
       <c r="A484" s="13" t="s">
         <v>1026</v>
       </c>
@@ -8977,7 +9740,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:2">
       <c r="A485" s="13" t="s">
         <v>1027</v>
       </c>
@@ -8985,7 +9748,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:2">
       <c r="A486" s="13" t="s">
         <v>1028</v>
       </c>
@@ -8993,7 +9756,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:2">
       <c r="A487" s="7" t="s">
         <v>264</v>
       </c>
@@ -9001,7 +9764,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:2">
       <c r="A488" s="6" t="s">
         <v>265</v>
       </c>
@@ -9009,7 +9772,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:2">
       <c r="A489" s="7" t="s">
         <v>266</v>
       </c>
@@ -9017,7 +9780,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:2">
       <c r="A490" s="7" t="s">
         <v>267</v>
       </c>
@@ -9025,7 +9788,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:2">
       <c r="A491" s="7" t="s">
         <v>268</v>
       </c>
@@ -9033,7 +9796,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:2">
       <c r="A492" s="6" t="s">
         <v>269</v>
       </c>
@@ -9041,7 +9804,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:2">
       <c r="A493" s="6" t="s">
         <v>270</v>
       </c>
@@ -9049,7 +9812,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:2">
       <c r="A494" s="6" t="s">
         <v>271</v>
       </c>
@@ -9057,7 +9820,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:2">
       <c r="A495" s="6" t="s">
         <v>272</v>
       </c>
@@ -9065,7 +9828,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:2">
       <c r="A496" s="13" t="s">
         <v>1029</v>
       </c>
@@ -9073,7 +9836,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:2">
       <c r="A497" s="13" t="s">
         <v>1030</v>
       </c>
@@ -9081,7 +9844,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:2">
       <c r="A498" s="13" t="s">
         <v>1031</v>
       </c>
@@ -9089,7 +9852,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:2">
       <c r="A499" s="13" t="s">
         <v>1032</v>
       </c>
@@ -9097,7 +9860,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:2">
       <c r="A500" s="13" t="s">
         <v>1033</v>
       </c>
@@ -9105,7 +9868,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:2">
       <c r="A501" s="13" t="s">
         <v>1034</v>
       </c>
@@ -9113,7 +9876,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:2">
       <c r="A502" s="13" t="s">
         <v>1035</v>
       </c>
@@ -9121,7 +9884,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:2">
       <c r="A503" s="13" t="s">
         <v>1036</v>
       </c>
@@ -9129,7 +9892,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:2">
       <c r="A504" s="6" t="s">
         <v>273</v>
       </c>
@@ -9137,7 +9900,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="505" spans="1:2" ht="33.75" thickBot="1">
       <c r="A505" s="8" t="s">
         <v>274</v>
       </c>
@@ -9145,7 +9908,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:2" ht="33.75">
       <c r="A506" s="5" t="s">
         <v>275</v>
       </c>
@@ -9153,7 +9916,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:2">
       <c r="A507" s="6" t="s">
         <v>276</v>
       </c>
@@ -9161,7 +9924,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:2">
       <c r="A508" s="13" t="s">
         <v>1037</v>
       </c>
@@ -9169,7 +9932,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:2">
       <c r="A509" s="13" t="s">
         <v>1038</v>
       </c>
@@ -9177,7 +9940,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:2">
       <c r="A510" s="13" t="s">
         <v>1039</v>
       </c>
@@ -9185,7 +9948,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:2">
       <c r="A511" s="7" t="s">
         <v>277</v>
       </c>
@@ -9193,7 +9956,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:2">
       <c r="A512" s="6" t="s">
         <v>278</v>
       </c>
@@ -9201,7 +9964,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:2">
       <c r="A513" s="7" t="s">
         <v>279</v>
       </c>
@@ -9209,7 +9972,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:2">
       <c r="A514" s="7" t="s">
         <v>280</v>
       </c>
@@ -9217,7 +9980,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:2">
       <c r="A515" s="7" t="s">
         <v>281</v>
       </c>
@@ -9225,7 +9988,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:2">
       <c r="A516" s="6" t="s">
         <v>282</v>
       </c>
@@ -9233,7 +9996,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:2">
       <c r="A517" s="6" t="s">
         <v>283</v>
       </c>
@@ -9241,7 +10004,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:2">
       <c r="A518" s="6" t="s">
         <v>284</v>
       </c>
@@ -9249,7 +10012,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:2">
       <c r="A519" s="6" t="s">
         <v>285</v>
       </c>
@@ -9257,7 +10020,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:2">
       <c r="A520" s="13" t="s">
         <v>1040</v>
       </c>
@@ -9265,7 +10028,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:2">
       <c r="A521" s="13" t="s">
         <v>1041</v>
       </c>
@@ -9273,7 +10036,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:2">
       <c r="A522" s="13" t="s">
         <v>1042</v>
       </c>
@@ -9281,7 +10044,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:2">
       <c r="A523" s="13" t="s">
         <v>1043</v>
       </c>
@@ -9289,7 +10052,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:2">
       <c r="A524" s="13" t="s">
         <v>1044</v>
       </c>
@@ -9297,7 +10060,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:2">
       <c r="A525" s="13" t="s">
         <v>1045</v>
       </c>
@@ -9305,7 +10068,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:2">
       <c r="A526" s="13" t="s">
         <v>1046</v>
       </c>
@@ -9313,7 +10076,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:2">
       <c r="A527" s="13" t="s">
         <v>1047</v>
       </c>
@@ -9321,7 +10084,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:2">
       <c r="A528" s="6" t="s">
         <v>286</v>
       </c>
@@ -9329,7 +10092,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="529" spans="1:2" ht="33.75" thickBot="1">
       <c r="A529" s="8" t="s">
         <v>287</v>
       </c>
@@ -9337,7 +10100,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:2" ht="33.75">
       <c r="A530" s="5" t="s">
         <v>288</v>
       </c>
@@ -9345,7 +10108,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:2">
       <c r="A531" s="6" t="s">
         <v>289</v>
       </c>
@@ -9353,7 +10116,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:2">
       <c r="A532" s="13" t="s">
         <v>1048</v>
       </c>
@@ -9361,7 +10124,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:2">
       <c r="A533" s="13" t="s">
         <v>1049</v>
       </c>
@@ -9369,7 +10132,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:2">
       <c r="A534" s="13" t="s">
         <v>1050</v>
       </c>
@@ -9377,7 +10140,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:2">
       <c r="A535" s="7" t="s">
         <v>290</v>
       </c>
@@ -9385,7 +10148,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:2">
       <c r="A536" s="6" t="s">
         <v>291</v>
       </c>
@@ -9393,7 +10156,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:2">
       <c r="A537" s="7" t="s">
         <v>292</v>
       </c>
@@ -9401,7 +10164,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:2">
       <c r="A538" s="7" t="s">
         <v>293</v>
       </c>
@@ -9409,7 +10172,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:2">
       <c r="A539" s="7" t="s">
         <v>294</v>
       </c>
@@ -9417,7 +10180,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:2">
       <c r="A540" s="6" t="s">
         <v>295</v>
       </c>
@@ -9425,7 +10188,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:2">
       <c r="A541" s="6" t="s">
         <v>296</v>
       </c>
@@ -9433,7 +10196,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:2">
       <c r="A542" s="6" t="s">
         <v>297</v>
       </c>
@@ -9441,7 +10204,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:2">
       <c r="A543" s="6" t="s">
         <v>298</v>
       </c>
@@ -9449,7 +10212,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:2">
       <c r="A544" s="13" t="s">
         <v>1051</v>
       </c>
@@ -9457,7 +10220,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:2">
       <c r="A545" s="13" t="s">
         <v>1052</v>
       </c>
@@ -9465,7 +10228,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:2">
       <c r="A546" s="13" t="s">
         <v>1053</v>
       </c>
@@ -9473,7 +10236,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:2">
       <c r="A547" s="13" t="s">
         <v>1054</v>
       </c>
@@ -9481,7 +10244,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:2">
       <c r="A548" s="13" t="s">
         <v>1055</v>
       </c>
@@ -9489,7 +10252,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:2">
       <c r="A549" s="13" t="s">
         <v>1056</v>
       </c>
@@ -9497,7 +10260,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:2">
       <c r="A550" s="13" t="s">
         <v>1057</v>
       </c>
@@ -9505,7 +10268,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:2">
       <c r="A551" s="13" t="s">
         <v>1058</v>
       </c>
@@ -9513,7 +10276,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:2">
       <c r="A552" s="6" t="s">
         <v>299</v>
       </c>
@@ -9521,7 +10284,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:2" ht="33.75" thickBot="1">
       <c r="A553" s="8" t="s">
         <v>300</v>
       </c>
@@ -9529,7 +10292,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:2" ht="33.75">
       <c r="A554" s="5" t="s">
         <v>301</v>
       </c>
@@ -9537,7 +10300,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:2">
       <c r="A555" s="6" t="s">
         <v>302</v>
       </c>
@@ -9545,7 +10308,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:2">
       <c r="A556" s="13" t="s">
         <v>1059</v>
       </c>
@@ -9553,7 +10316,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:2">
       <c r="A557" s="13" t="s">
         <v>1060</v>
       </c>
@@ -9561,7 +10324,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:2">
       <c r="A558" s="13" t="s">
         <v>1061</v>
       </c>
@@ -9569,7 +10332,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:2">
       <c r="A559" s="7" t="s">
         <v>303</v>
       </c>
@@ -9577,7 +10340,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:2">
       <c r="A560" s="6" t="s">
         <v>304</v>
       </c>
@@ -9585,7 +10348,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:2">
       <c r="A561" s="7" t="s">
         <v>305</v>
       </c>
@@ -9593,7 +10356,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:2">
       <c r="A562" s="7" t="s">
         <v>306</v>
       </c>
@@ -9601,7 +10364,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:2">
       <c r="A563" s="7" t="s">
         <v>307</v>
       </c>
@@ -9609,7 +10372,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:2">
       <c r="A564" s="6" t="s">
         <v>308</v>
       </c>
@@ -9617,7 +10380,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:2">
       <c r="A565" s="6" t="s">
         <v>309</v>
       </c>
@@ -9625,7 +10388,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:2">
       <c r="A566" s="6" t="s">
         <v>310</v>
       </c>
@@ -9633,7 +10396,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:2">
       <c r="A567" s="6" t="s">
         <v>311</v>
       </c>
@@ -9641,7 +10404,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:2">
       <c r="A568" s="13" t="s">
         <v>1062</v>
       </c>
@@ -9649,7 +10412,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:2">
       <c r="A569" s="13" t="s">
         <v>1063</v>
       </c>
@@ -9657,7 +10420,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:2">
       <c r="A570" s="13" t="s">
         <v>1064</v>
       </c>
@@ -9665,7 +10428,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:2">
       <c r="A571" s="13" t="s">
         <v>1065</v>
       </c>
@@ -9673,7 +10436,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:2">
       <c r="A572" s="13" t="s">
         <v>1066</v>
       </c>
@@ -9681,7 +10444,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:2">
       <c r="A573" s="13" t="s">
         <v>1067</v>
       </c>
@@ -9689,7 +10452,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:2">
       <c r="A574" s="13" t="s">
         <v>1068</v>
       </c>
@@ -9697,7 +10460,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:2">
       <c r="A575" s="13" t="s">
         <v>1069</v>
       </c>
@@ -9705,7 +10468,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:2">
       <c r="A576" s="6" t="s">
         <v>312</v>
       </c>
@@ -9713,7 +10476,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="577" spans="1:2" ht="33.75" thickBot="1">
       <c r="A577" s="8" t="s">
         <v>313</v>
       </c>
@@ -9721,7 +10484,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:2" ht="33.75">
       <c r="A578" s="5" t="s">
         <v>314</v>
       </c>
@@ -9729,7 +10492,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:2">
       <c r="A579" s="6" t="s">
         <v>315</v>
       </c>
@@ -9737,7 +10500,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:2">
       <c r="A580" s="13" t="s">
         <v>1070</v>
       </c>
@@ -9745,7 +10508,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:2">
       <c r="A581" s="13" t="s">
         <v>1071</v>
       </c>
@@ -9753,7 +10516,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:2">
       <c r="A582" s="13" t="s">
         <v>1072</v>
       </c>
@@ -9761,7 +10524,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:2">
       <c r="A583" s="7" t="s">
         <v>316</v>
       </c>
@@ -9769,7 +10532,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:2">
       <c r="A584" s="6" t="s">
         <v>317</v>
       </c>
@@ -9777,7 +10540,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:2">
       <c r="A585" s="7" t="s">
         <v>318</v>
       </c>
@@ -9785,7 +10548,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:2">
       <c r="A586" s="7" t="s">
         <v>319</v>
       </c>
@@ -9793,7 +10556,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:2">
       <c r="A587" s="7" t="s">
         <v>320</v>
       </c>
@@ -9801,7 +10564,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:2">
       <c r="A588" s="6" t="s">
         <v>321</v>
       </c>
@@ -9809,7 +10572,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:2">
       <c r="A589" s="6" t="s">
         <v>322</v>
       </c>
@@ -9817,7 +10580,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:2">
       <c r="A590" s="6" t="s">
         <v>323</v>
       </c>
@@ -9825,7 +10588,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:2">
       <c r="A591" s="6" t="s">
         <v>322</v>
       </c>
@@ -9833,7 +10596,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:2">
       <c r="A592" s="13" t="s">
         <v>1073</v>
       </c>
@@ -9841,7 +10604,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:2">
       <c r="A593" s="13" t="s">
         <v>1074</v>
       </c>
@@ -9849,7 +10612,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:2">
       <c r="A594" s="13" t="s">
         <v>1075</v>
       </c>
@@ -9857,7 +10620,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:2">
       <c r="A595" s="13" t="s">
         <v>1076</v>
       </c>
@@ -9865,7 +10628,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:2">
       <c r="A596" s="13" t="s">
         <v>1077</v>
       </c>
@@ -9873,7 +10636,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:2">
       <c r="A597" s="13" t="s">
         <v>1078</v>
       </c>
@@ -9881,7 +10644,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:2">
       <c r="A598" s="13" t="s">
         <v>1079</v>
       </c>
@@ -9889,7 +10652,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:2">
       <c r="A599" s="13" t="s">
         <v>1080</v>
       </c>
@@ -9897,7 +10660,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:2">
       <c r="A600" s="6" t="s">
         <v>324</v>
       </c>
@@ -9905,7 +10668,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="601" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="601" spans="1:2" ht="33.75" thickBot="1">
       <c r="A601" s="8" t="s">
         <v>325</v>
       </c>
@@ -9913,7 +10676,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:2" ht="33.75">
       <c r="A602" s="5" t="s">
         <v>326</v>
       </c>
@@ -9921,7 +10684,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:2">
       <c r="A603" s="6" t="s">
         <v>327</v>
       </c>
@@ -9929,7 +10692,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:2">
       <c r="A604" s="13" t="s">
         <v>1081</v>
       </c>
@@ -9937,7 +10700,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:2">
       <c r="A605" s="13" t="s">
         <v>1082</v>
       </c>
@@ -9945,7 +10708,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:2">
       <c r="A606" s="13" t="s">
         <v>1083</v>
       </c>
@@ -9953,7 +10716,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:2">
       <c r="A607" s="7" t="s">
         <v>328</v>
       </c>
@@ -9961,7 +10724,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:2">
       <c r="A608" s="6" t="s">
         <v>329</v>
       </c>
@@ -9969,7 +10732,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:2">
       <c r="A609" s="7" t="s">
         <v>330</v>
       </c>
@@ -9977,7 +10740,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:2">
       <c r="A610" s="7" t="s">
         <v>331</v>
       </c>
@@ -9985,7 +10748,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:2">
       <c r="A611" s="7" t="s">
         <v>332</v>
       </c>
@@ -9993,7 +10756,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:2">
       <c r="A612" s="6" t="s">
         <v>333</v>
       </c>
@@ -10001,7 +10764,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:2">
       <c r="A613" s="6" t="s">
         <v>334</v>
       </c>
@@ -10009,7 +10772,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:2">
       <c r="A614" s="6" t="s">
         <v>335</v>
       </c>
@@ -10017,7 +10780,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:2">
       <c r="A615" s="6" t="s">
         <v>336</v>
       </c>
@@ -10025,7 +10788,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:2">
       <c r="A616" s="13" t="s">
         <v>1084</v>
       </c>
@@ -10033,7 +10796,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:2">
       <c r="A617" s="13" t="s">
         <v>1085</v>
       </c>
@@ -10041,7 +10804,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:2">
       <c r="A618" s="13" t="s">
         <v>1086</v>
       </c>
@@ -10049,7 +10812,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:2">
       <c r="A619" s="13" t="s">
         <v>1087</v>
       </c>
@@ -10057,7 +10820,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:2">
       <c r="A620" s="13" t="s">
         <v>1088</v>
       </c>
@@ -10065,7 +10828,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:2">
       <c r="A621" s="13" t="s">
         <v>1089</v>
       </c>
@@ -10073,7 +10836,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:2">
       <c r="A622" s="13" t="s">
         <v>1090</v>
       </c>
@@ -10081,7 +10844,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:2">
       <c r="A623" s="13" t="s">
         <v>1091</v>
       </c>
@@ -10089,7 +10852,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:2">
       <c r="A624" s="6" t="s">
         <v>337</v>
       </c>
@@ -10097,7 +10860,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="625" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="625" spans="1:2" ht="33.75" thickBot="1">
       <c r="A625" s="8" t="s">
         <v>338</v>
       </c>
@@ -10105,7 +10868,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:2" ht="33.75">
       <c r="A626" s="5" t="s">
         <v>339</v>
       </c>
@@ -10113,7 +10876,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:2">
       <c r="A627" s="6" t="s">
         <v>340</v>
       </c>
@@ -10121,7 +10884,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:2">
       <c r="A628" s="13" t="s">
         <v>1092</v>
       </c>
@@ -10129,7 +10892,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:2">
       <c r="A629" s="13" t="s">
         <v>1093</v>
       </c>
@@ -10137,7 +10900,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:2">
       <c r="A630" s="13" t="s">
         <v>1094</v>
       </c>
@@ -10145,7 +10908,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:2">
       <c r="A631" s="7" t="s">
         <v>341</v>
       </c>
@@ -10153,7 +10916,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:2">
       <c r="A632" s="6" t="s">
         <v>342</v>
       </c>
@@ -10161,7 +10924,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:2">
       <c r="A633" s="7" t="s">
         <v>343</v>
       </c>
@@ -10169,7 +10932,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:2">
       <c r="A634" s="7" t="s">
         <v>344</v>
       </c>
@@ -10177,7 +10940,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:2">
       <c r="A635" s="7" t="s">
         <v>345</v>
       </c>
@@ -10185,7 +10948,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:2">
       <c r="A636" s="6" t="s">
         <v>346</v>
       </c>
@@ -10193,7 +10956,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:2">
       <c r="A637" s="6" t="s">
         <v>347</v>
       </c>
@@ -10201,7 +10964,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:2">
       <c r="A638" s="6" t="s">
         <v>348</v>
       </c>
@@ -10209,7 +10972,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:2">
       <c r="A639" s="6" t="s">
         <v>349</v>
       </c>
@@ -10217,7 +10980,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:2">
       <c r="A640" s="13" t="s">
         <v>1095</v>
       </c>
@@ -10225,7 +10988,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:2">
       <c r="A641" s="13" t="s">
         <v>1096</v>
       </c>
@@ -10233,7 +10996,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:2">
       <c r="A642" s="13" t="s">
         <v>1097</v>
       </c>
@@ -10241,7 +11004,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:2">
       <c r="A643" s="13" t="s">
         <v>1098</v>
       </c>
@@ -10249,7 +11012,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:2">
       <c r="A644" s="13" t="s">
         <v>1099</v>
       </c>
@@ -10257,7 +11020,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:2">
       <c r="A645" s="13" t="s">
         <v>1100</v>
       </c>
@@ -10265,7 +11028,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:2">
       <c r="A646" s="13" t="s">
         <v>1101</v>
       </c>
@@ -10273,7 +11036,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:2">
       <c r="A647" s="13" t="s">
         <v>1102</v>
       </c>
@@ -10281,7 +11044,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:2">
       <c r="A648" s="6" t="s">
         <v>350</v>
       </c>
@@ -10289,7 +11052,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="649" spans="1:2" ht="33.75" thickBot="1">
       <c r="A649" s="8" t="s">
         <v>351</v>
       </c>
@@ -10297,7 +11060,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:2" ht="33.75">
       <c r="A650" s="5" t="s">
         <v>352</v>
       </c>
@@ -10305,7 +11068,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:2">
       <c r="A651" s="6" t="s">
         <v>353</v>
       </c>
@@ -10313,7 +11076,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:2">
       <c r="A652" s="13" t="s">
         <v>1103</v>
       </c>
@@ -10321,7 +11084,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:2">
       <c r="A653" s="13" t="s">
         <v>1104</v>
       </c>
@@ -10329,7 +11092,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:2">
       <c r="A654" s="13" t="s">
         <v>1105</v>
       </c>
@@ -10337,7 +11100,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:2">
       <c r="A655" s="7" t="s">
         <v>354</v>
       </c>
@@ -10345,7 +11108,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:2">
       <c r="A656" s="6" t="s">
         <v>355</v>
       </c>
@@ -10353,7 +11116,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:2">
       <c r="A657" s="7" t="s">
         <v>356</v>
       </c>
@@ -10361,7 +11124,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:2">
       <c r="A658" s="7" t="s">
         <v>357</v>
       </c>
@@ -10369,7 +11132,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:2">
       <c r="A659" s="7" t="s">
         <v>358</v>
       </c>
@@ -10377,7 +11140,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:2">
       <c r="A660" s="6" t="s">
         <v>359</v>
       </c>
@@ -10385,7 +11148,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:2">
       <c r="A661" s="6" t="s">
         <v>360</v>
       </c>
@@ -10393,7 +11156,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:2">
       <c r="A662" s="6" t="s">
         <v>361</v>
       </c>
@@ -10401,7 +11164,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:2">
       <c r="A663" s="6" t="s">
         <v>362</v>
       </c>
@@ -10409,7 +11172,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:2">
       <c r="A664" s="13" t="s">
         <v>1106</v>
       </c>
@@ -10417,7 +11180,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:2">
       <c r="A665" s="13" t="s">
         <v>1107</v>
       </c>
@@ -10425,7 +11188,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:2">
       <c r="A666" s="13" t="s">
         <v>1108</v>
       </c>
@@ -10433,7 +11196,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:2">
       <c r="A667" s="13" t="s">
         <v>1109</v>
       </c>
@@ -10441,7 +11204,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:2">
       <c r="A668" s="13" t="s">
         <v>1110</v>
       </c>
@@ -10449,7 +11212,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:2">
       <c r="A669" s="13" t="s">
         <v>1111</v>
       </c>
@@ -10457,7 +11220,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:2">
       <c r="A670" s="13" t="s">
         <v>1112</v>
       </c>
@@ -10465,7 +11228,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:2">
       <c r="A671" s="13" t="s">
         <v>1113</v>
       </c>
@@ -10473,7 +11236,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:2">
       <c r="A672" s="6" t="s">
         <v>363</v>
       </c>
@@ -10481,7 +11244,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="673" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="673" spans="1:2" ht="33.75" thickBot="1">
       <c r="A673" s="8" t="s">
         <v>364</v>
       </c>
@@ -10489,7 +11252,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:2" ht="33.75">
       <c r="A674" s="5" t="s">
         <v>365</v>
       </c>
@@ -10497,7 +11260,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:2">
       <c r="A675" s="6" t="s">
         <v>366</v>
       </c>
@@ -10505,7 +11268,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:2">
       <c r="A676" s="13" t="s">
         <v>1114</v>
       </c>
@@ -10513,7 +11276,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:2">
       <c r="A677" s="13" t="s">
         <v>1115</v>
       </c>
@@ -10521,7 +11284,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:2">
       <c r="A678" s="13" t="s">
         <v>1116</v>
       </c>
@@ -10529,7 +11292,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:2">
       <c r="A679" s="7" t="s">
         <v>367</v>
       </c>
@@ -10537,7 +11300,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:2">
       <c r="A680" s="6" t="s">
         <v>368</v>
       </c>
@@ -10545,7 +11308,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:2">
       <c r="A681" s="7" t="s">
         <v>369</v>
       </c>
@@ -10553,7 +11316,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:2">
       <c r="A682" s="7" t="s">
         <v>370</v>
       </c>
@@ -10561,7 +11324,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:2">
       <c r="A683" s="7" t="s">
         <v>371</v>
       </c>
@@ -10569,7 +11332,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:2">
       <c r="A684" s="6" t="s">
         <v>372</v>
       </c>
@@ -10577,7 +11340,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:2">
       <c r="A685" s="6" t="s">
         <v>373</v>
       </c>
@@ -10585,7 +11348,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:2">
       <c r="A686" s="6" t="s">
         <v>374</v>
       </c>
@@ -10593,7 +11356,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:2">
       <c r="A687" s="6" t="s">
         <v>375</v>
       </c>
@@ -10601,7 +11364,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:2">
       <c r="A688" s="14" t="s">
         <v>1117</v>
       </c>
@@ -10609,7 +11372,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:2">
       <c r="A689" s="14" t="s">
         <v>1118</v>
       </c>
@@ -10617,7 +11380,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:2">
       <c r="A690" s="14" t="s">
         <v>1119</v>
       </c>
@@ -10625,7 +11388,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:2">
       <c r="A691" s="14" t="s">
         <v>1120</v>
       </c>
@@ -10633,7 +11396,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:2">
       <c r="A692" s="14" t="s">
         <v>1121</v>
       </c>
@@ -10641,7 +11404,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:2">
       <c r="A693" s="14" t="s">
         <v>1122</v>
       </c>
@@ -10649,7 +11412,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:2">
       <c r="A694" s="14" t="s">
         <v>1123</v>
       </c>
@@ -10657,7 +11420,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:2">
       <c r="A695" s="14" t="s">
         <v>1124</v>
       </c>
@@ -10665,7 +11428,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:2">
       <c r="A696" s="6" t="s">
         <v>376</v>
       </c>
@@ -10673,7 +11436,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="697" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="697" spans="1:2" ht="33.75" thickBot="1">
       <c r="A697" s="8" t="s">
         <v>377</v>
       </c>
@@ -10681,7 +11444,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:2" ht="33.75">
       <c r="A698" s="5" t="s">
         <v>378</v>
       </c>
@@ -10689,7 +11452,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:2">
       <c r="A699" s="6" t="s">
         <v>379</v>
       </c>
@@ -10697,7 +11460,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:2">
       <c r="A700" s="13" t="s">
         <v>1125</v>
       </c>
@@ -10705,7 +11468,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:2">
       <c r="A701" s="13" t="s">
         <v>1126</v>
       </c>
@@ -10713,7 +11476,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:2">
       <c r="A702" s="13" t="s">
         <v>1127</v>
       </c>
@@ -10721,7 +11484,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:2">
       <c r="A703" s="7" t="s">
         <v>380</v>
       </c>
@@ -10729,7 +11492,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:2">
       <c r="A704" s="6" t="s">
         <v>381</v>
       </c>
@@ -10737,7 +11500,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:2">
       <c r="A705" s="7" t="s">
         <v>382</v>
       </c>
@@ -10745,7 +11508,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:2">
       <c r="A706" s="7" t="s">
         <v>383</v>
       </c>
@@ -10753,7 +11516,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:2">
       <c r="A707" s="7" t="s">
         <v>384</v>
       </c>
@@ -10761,7 +11524,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:2">
       <c r="A708" s="6" t="s">
         <v>385</v>
       </c>
@@ -10769,7 +11532,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:2">
       <c r="A709" s="6" t="s">
         <v>386</v>
       </c>
@@ -10777,7 +11540,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:2">
       <c r="A710" s="6" t="s">
         <v>387</v>
       </c>
@@ -10785,7 +11548,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:2">
       <c r="A711" s="6" t="s">
         <v>388</v>
       </c>
@@ -10793,7 +11556,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:2">
       <c r="A712" s="13" t="s">
         <v>1128</v>
       </c>
@@ -10801,7 +11564,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:2">
       <c r="A713" s="13" t="s">
         <v>1129</v>
       </c>
@@ -10809,7 +11572,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:2">
       <c r="A714" s="13" t="s">
         <v>1130</v>
       </c>
@@ -10817,7 +11580,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:2">
       <c r="A715" s="13" t="s">
         <v>1131</v>
       </c>
@@ -10825,7 +11588,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:2">
       <c r="A716" s="13" t="s">
         <v>1132</v>
       </c>
@@ -10833,7 +11596,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:2">
       <c r="A717" s="13" t="s">
         <v>1133</v>
       </c>
@@ -10841,7 +11604,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:2">
       <c r="A718" s="13" t="s">
         <v>1134</v>
       </c>
@@ -10849,7 +11612,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:2">
       <c r="A719" s="13" t="s">
         <v>1135</v>
       </c>
@@ -10857,7 +11620,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:2">
       <c r="A720" s="6" t="s">
         <v>389</v>
       </c>
@@ -10865,7 +11628,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="721" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="721" spans="1:2" ht="33.75" thickBot="1">
       <c r="A721" s="8" t="s">
         <v>390</v>
       </c>
@@ -10873,7 +11636,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:2" ht="33.75">
       <c r="A722" s="5" t="s">
         <v>391</v>
       </c>
@@ -10881,7 +11644,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:2">
       <c r="A723" s="6" t="s">
         <v>392</v>
       </c>
@@ -10889,7 +11652,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:2">
       <c r="A724" s="13" t="s">
         <v>1136</v>
       </c>
@@ -10897,7 +11660,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:2">
       <c r="A725" s="13" t="s">
         <v>1137</v>
       </c>
@@ -10905,7 +11668,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:2">
       <c r="A726" s="13" t="s">
         <v>1138</v>
       </c>
@@ -10913,7 +11676,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:2">
       <c r="A727" s="7" t="s">
         <v>393</v>
       </c>
@@ -10921,7 +11684,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:2">
       <c r="A728" s="6" t="s">
         <v>394</v>
       </c>
@@ -10929,7 +11692,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:2">
       <c r="A729" s="7" t="s">
         <v>395</v>
       </c>
@@ -10937,7 +11700,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:2">
       <c r="A730" s="7" t="s">
         <v>396</v>
       </c>
@@ -10945,7 +11708,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:2">
       <c r="A731" s="7" t="s">
         <v>397</v>
       </c>
@@ -10953,7 +11716,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:2">
       <c r="A732" s="6" t="s">
         <v>398</v>
       </c>
@@ -10961,7 +11724,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:2">
       <c r="A733" s="6" t="s">
         <v>399</v>
       </c>
@@ -10969,7 +11732,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:2">
       <c r="A734" s="6" t="s">
         <v>400</v>
       </c>
@@ -10977,7 +11740,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:2">
       <c r="A735" s="6" t="s">
         <v>401</v>
       </c>
@@ -10985,7 +11748,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:2">
       <c r="A736" s="13" t="s">
         <v>1139</v>
       </c>
@@ -10993,7 +11756,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:2">
       <c r="A737" s="13" t="s">
         <v>1140</v>
       </c>
@@ -11001,7 +11764,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:2">
       <c r="A738" s="13" t="s">
         <v>1141</v>
       </c>
@@ -11009,7 +11772,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:2">
       <c r="A739" s="13" t="s">
         <v>1142</v>
       </c>
@@ -11017,7 +11780,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:2">
       <c r="A740" s="13" t="s">
         <v>1143</v>
       </c>
@@ -11025,7 +11788,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:2">
       <c r="A741" s="13" t="s">
         <v>1144</v>
       </c>
@@ -11033,7 +11796,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:2">
       <c r="A742" s="13" t="s">
         <v>1145</v>
       </c>
@@ -11041,7 +11804,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:2">
       <c r="A743" s="13" t="s">
         <v>1146</v>
       </c>
@@ -11049,7 +11812,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:2">
       <c r="A744" s="6" t="s">
         <v>402</v>
       </c>
@@ -11057,7 +11820,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="745" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="745" spans="1:2" ht="33.75" thickBot="1">
       <c r="A745" s="8" t="s">
         <v>403</v>
       </c>
@@ -11065,7 +11828,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:2" ht="33.75">
       <c r="A746" s="5" t="s">
         <v>404</v>
       </c>
@@ -11073,7 +11836,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:2">
       <c r="A747" s="6" t="s">
         <v>405</v>
       </c>
@@ -11081,7 +11844,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:2">
       <c r="A748" s="13" t="s">
         <v>1147</v>
       </c>
@@ -11089,7 +11852,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:2">
       <c r="A749" s="13" t="s">
         <v>1148</v>
       </c>
@@ -11097,12 +11860,1086 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:2">
       <c r="A750" s="13" t="s">
         <v>1149</v>
       </c>
       <c r="B750" s="15" t="s">
         <v>1491</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B751" s="10"/>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B752" s="11"/>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B753" s="10"/>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B754" s="10"/>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B755" s="10"/>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="6" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B756" s="10"/>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B757" s="10"/>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B758" s="10"/>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B759" s="10"/>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B760" s="15"/>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="13" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B761" s="15"/>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="13" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B762" s="15"/>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="13" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B763" s="15"/>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="13" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B764" s="15"/>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B765" s="15"/>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="13" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B766" s="15"/>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="13" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B767" s="15"/>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B768" s="10"/>
+    </row>
+    <row r="769" spans="1:2" ht="33.75" thickBot="1">
+      <c r="A769" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B769" s="12"/>
+    </row>
+    <row r="770" spans="1:2" ht="33.75">
+      <c r="A770" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B770" s="9" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B771" s="10" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="13" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B772" s="15" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="13" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B773" s="15" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="13" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B774" s="15" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="7" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B775" s="10" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B776" s="11" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="7" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B777" s="10" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="7" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B778" s="10" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B779" s="10" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="6" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B780" s="10" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B781" s="10" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B782" s="10" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="6" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B783" s="10" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="13" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B784" s="15" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="13" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B785" s="15" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="13" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B786" s="15" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B787" s="15" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B788" s="15" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="13" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B789" s="15" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="13" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B790" s="15" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="13" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B791" s="15" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B792" s="10" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" ht="33.75" thickBot="1">
+      <c r="A793" s="8" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B793" s="12" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" ht="33.75">
+      <c r="A794" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B794" s="9" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="6" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B795" s="10" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="13" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B796" s="15" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B797" s="15" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B798" s="15" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="7" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B799" s="10" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B800" s="11" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B801" s="10" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B802" s="10" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B803" s="10" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="6" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B804" s="10" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="6" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B805" s="10" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="6" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B806" s="10" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="6" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B807" s="10" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="13" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B808" s="15" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="13" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B809" s="15" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="13" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B810" s="15" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="13" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B811" s="15" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="13" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B812" s="15" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="13" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B813" s="15" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="13" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B814" s="15" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="13" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B815" s="15" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B816" s="10" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" ht="33.75" thickBot="1">
+      <c r="A817" s="8" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B817" s="12" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" ht="33.75">
+      <c r="A818" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B818" s="9" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B819" s="10" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="13" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B820" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="13" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B821" s="15" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="13" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B822" s="15" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="7" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B823" s="10" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="6" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B824" s="11" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="7" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B825" s="10" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B826" s="10" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B827" s="10" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B828" s="10" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="6" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B829" s="10" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="6" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B830" s="10" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B831" s="10" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="13" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B832" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="13" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B833" s="15" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="13" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B834" s="15" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="13" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B835" s="15" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="13" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B836" s="15" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="13" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B837" s="15" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="13" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B838" s="15" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="13" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B839" s="15" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B840" s="10" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" ht="33.75" thickBot="1">
+      <c r="A841" s="8" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B841" s="12" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" ht="33.75">
+      <c r="A842" s="5" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B842" s="9" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B843" s="10" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="13" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B844" s="15" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="13" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B845" s="15" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="13" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B846" s="15" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="7" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B847" s="10" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B848" s="11" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B849" s="10" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="7" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B850" s="10" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="7" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B851" s="10" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="6" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B852" s="10" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="6" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B853" s="10" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="6" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B854" s="10" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B855" s="10" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B856" s="15" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="13" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B857" s="15" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="13" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B858" s="15" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="13" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B859" s="15" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B860" s="15" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="13" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B861" s="15" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B862" s="15" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="13" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B863" s="15" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B864" s="10" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" ht="33.75" thickBot="1">
+      <c r="A865" s="8" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B865" s="12" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" ht="33.75">
+      <c r="A866" s="5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B866" s="9" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="6" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B867" s="10" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="13" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B868" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="13" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B869" s="15" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="13" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B870" s="15" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B871" s="10" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="6" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B872" s="11" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="7" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B873" s="10" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="7" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B874" s="10" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="7" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B875" s="10" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B876" s="10" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="6" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B877" s="10" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="6" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B878" s="10" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="6" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B879" s="10" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="13" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B880" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="13" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B881" s="15" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B882" s="15" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="13" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B883" s="15" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="13" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B884" s="15" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="13" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B885" s="15" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="13" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B886" s="15" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="13" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B887" s="15" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" s="6" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B888" s="10" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" ht="33.75" thickBot="1">
+      <c r="A889" s="8" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B889" s="12" t="s">
+        <v>1745</v>
       </c>
     </row>
   </sheetData>

--- a/public/emsileimuhtelife.xlsx
+++ b/public/emsileimuhtelife.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22289A53-0912-4D18-B75D-5D9403ABAD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C6D084-B7B8-4C0C-A2D1-4004B8ACCD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="EMSİLE24SİGAÇEKİMLERİ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EMSİLE24SİGAÇEKİMLERİ!$A$1:$B$482</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EMSİLE24SİGAÇEKİMLERİ!$A$1:$B$889</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1746">
   <si>
     <t>arabic_word</t>
   </si>
@@ -2698,9 +2698,6 @@
   </si>
   <si>
     <t>مَحْسَنٌ</t>
-  </si>
-  <si>
-    <t>لَا يَكُونُ</t>
   </si>
   <si>
     <t>حَسْنَةً</t>
@@ -5858,8 +5855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
   <dimension ref="A1:B889"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="C466" sqref="C466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="33"/>
@@ -5897,7 +5894,7 @@
         <v>807</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5905,7 +5902,7 @@
         <v>808</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5913,7 +5910,7 @@
         <v>809</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5993,7 +5990,7 @@
         <v>810</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6001,7 +5998,7 @@
         <v>811</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6009,7 +6006,7 @@
         <v>812</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6017,7 +6014,7 @@
         <v>813</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6025,7 +6022,7 @@
         <v>814</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6033,7 +6030,7 @@
         <v>815</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6041,7 +6038,7 @@
         <v>816</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6049,7 +6046,7 @@
         <v>817</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6089,7 +6086,7 @@
         <v>818</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6097,7 +6094,7 @@
         <v>819</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6105,7 +6102,7 @@
         <v>820</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6185,7 +6182,7 @@
         <v>821</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6193,7 +6190,7 @@
         <v>822</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6201,7 +6198,7 @@
         <v>823</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6209,7 +6206,7 @@
         <v>824</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6217,7 +6214,7 @@
         <v>825</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6225,7 +6222,7 @@
         <v>826</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6233,7 +6230,7 @@
         <v>827</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6241,7 +6238,7 @@
         <v>828</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -6281,7 +6278,7 @@
         <v>829</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -6289,7 +6286,7 @@
         <v>830</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -6297,7 +6294,7 @@
         <v>831</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -6377,7 +6374,7 @@
         <v>832</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -6385,7 +6382,7 @@
         <v>833</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6393,7 +6390,7 @@
         <v>834</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6401,7 +6398,7 @@
         <v>835</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6409,7 +6406,7 @@
         <v>836</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -6417,7 +6414,7 @@
         <v>837</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -6425,7 +6422,7 @@
         <v>838</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -6433,7 +6430,7 @@
         <v>839</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6473,7 +6470,7 @@
         <v>840</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -6481,7 +6478,7 @@
         <v>841</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -6489,7 +6486,7 @@
         <v>842</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -6569,7 +6566,7 @@
         <v>843</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -6577,7 +6574,7 @@
         <v>844</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -6585,7 +6582,7 @@
         <v>845</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -6593,7 +6590,7 @@
         <v>846</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -6601,7 +6598,7 @@
         <v>847</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -6609,7 +6606,7 @@
         <v>848</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -6617,7 +6614,7 @@
         <v>849</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -6625,7 +6622,7 @@
         <v>850</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -6665,7 +6662,7 @@
         <v>851</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -6673,7 +6670,7 @@
         <v>852</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -6681,7 +6678,7 @@
         <v>853</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -6761,7 +6758,7 @@
         <v>854</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -6769,7 +6766,7 @@
         <v>855</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -6777,7 +6774,7 @@
         <v>856</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -6785,7 +6782,7 @@
         <v>857</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -6793,7 +6790,7 @@
         <v>858</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -6801,7 +6798,7 @@
         <v>859</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -6809,7 +6806,7 @@
         <v>860</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -6817,7 +6814,7 @@
         <v>861</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -6857,7 +6854,7 @@
         <v>862</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -6865,7 +6862,7 @@
         <v>863</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -6873,7 +6870,7 @@
         <v>864</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -6953,7 +6950,7 @@
         <v>864</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -6961,7 +6958,7 @@
         <v>865</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -6969,7 +6966,7 @@
         <v>866</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -6977,7 +6974,7 @@
         <v>867</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -6985,7 +6982,7 @@
         <v>868</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -6993,7 +6990,7 @@
         <v>869</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -7001,7 +6998,7 @@
         <v>870</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -7009,7 +7006,7 @@
         <v>871</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -7049,7 +7046,7 @@
         <v>872</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -7057,7 +7054,7 @@
         <v>873</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -7065,7 +7062,7 @@
         <v>874</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -7145,7 +7142,7 @@
         <v>875</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -7153,7 +7150,7 @@
         <v>876</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -7161,7 +7158,7 @@
         <v>877</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -7169,7 +7166,7 @@
         <v>878</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -7177,7 +7174,7 @@
         <v>879</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -7185,7 +7182,7 @@
         <v>880</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -7193,7 +7190,7 @@
         <v>881</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -7201,7 +7198,7 @@
         <v>882</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -7241,7 +7238,7 @@
         <v>883</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -7249,7 +7246,7 @@
         <v>884</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -7257,7 +7254,7 @@
         <v>885</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -7337,63 +7334,63 @@
         <v>886</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="13" t="s">
-        <v>887</v>
+        <v>1621</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="13" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -7430,26 +7427,26 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -7526,66 +7523,66 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="13" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -7622,26 +7619,26 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -7718,66 +7715,66 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="13" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="13" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -7814,26 +7811,26 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="13" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -7910,66 +7907,66 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -8006,26 +8003,26 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -8102,66 +8099,66 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="13" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -8198,26 +8195,26 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="13" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="13" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -8294,66 +8291,66 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="13" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="13" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -8390,26 +8387,26 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="13" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B317" s="15" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="13" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -8486,66 +8483,66 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="13" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="13" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="13" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="13" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B331" s="15" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="13" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="13" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -8582,26 +8579,26 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="13" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -8678,66 +8675,66 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="13" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="13" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="13" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="13" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="13" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="13" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="13" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="13" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -8774,26 +8771,26 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="13" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="13" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -8870,66 +8867,66 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="13" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="13" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="13" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="13" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="13" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="13" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B381" s="15" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="13" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B382" s="15" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="13" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B383" s="15" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -8966,26 +8963,26 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="13" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="13" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -9062,66 +9059,66 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="13" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="13" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="13" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="13" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="13" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="13" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="13" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="13" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -9158,26 +9155,26 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="13" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="13" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="13" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -9254,66 +9251,66 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="13" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="13" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="13" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="13" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="13" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="13" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="13" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="13" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -9350,26 +9347,26 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="13" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="13" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="13" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -9446,66 +9443,66 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="13" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B448" s="15" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="13" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B449" s="15" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="13" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B450" s="15" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B451" s="15" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="13" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B452" s="15" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="13" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B453" s="15" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B454" s="15" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B455" s="15" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -9542,26 +9539,26 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="13" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B460" s="15" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B461" s="15" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B462" s="15" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -9638,66 +9635,66 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B472" s="15" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="13" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B473" s="15" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="13" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B474" s="15" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="13" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B475" s="15" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B476" s="15" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B477" s="15" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B478" s="15" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B479" s="15" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -9734,26 +9731,26 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B484" s="15" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B485" s="15" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B486" s="15" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -9830,66 +9827,66 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B496" s="15" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B497" s="15" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B498" s="15" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="13" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B499" s="15" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B500" s="15" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B501" s="15" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B502" s="15" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="13" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B503" s="15" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -9926,26 +9923,26 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="13" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B508" s="15" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B509" s="15" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="13" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B510" s="15" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -10022,66 +10019,66 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="13" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B520" s="15" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="13" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B521" s="15" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="13" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B522" s="15" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="13" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B523" s="15" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B524" s="15" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="13" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B525" s="15" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="13" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B526" s="15" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B527" s="15" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -10118,26 +10115,26 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B532" s="15" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B533" s="15" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B534" s="15" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -10214,66 +10211,66 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="13" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B544" s="15" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="13" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B545" s="15" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="13" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B546" s="15" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="13" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B547" s="15" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="13" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B548" s="15" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="13" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B549" s="15" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="13" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B550" s="15" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="13" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B551" s="15" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -10310,26 +10307,26 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="13" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B556" s="15" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="13" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B557" s="15" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="13" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B558" s="15" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -10406,66 +10403,66 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="13" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B568" s="15" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="13" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B569" s="15" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="13" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B570" s="15" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="13" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B571" s="15" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="13" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B572" s="15" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="13" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B573" s="15" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="13" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B574" s="15" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="13" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B575" s="15" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -10502,26 +10499,26 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B580" s="15" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="13" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B581" s="15" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="13" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B582" s="15" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -10598,66 +10595,66 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="13" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B592" s="15" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="13" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B593" s="15" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="13" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B594" s="15" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="13" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B595" s="15" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="13" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B596" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="13" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B597" s="15" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B598" s="15" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="13" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B599" s="15" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -10694,26 +10691,26 @@
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="13" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B604" s="15" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="13" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B605" s="15" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="13" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B606" s="15" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -10790,66 +10787,66 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="13" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B616" s="15" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="13" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B617" s="15" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="13" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B618" s="15" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="13" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B619" s="15" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="13" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B620" s="15" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B621" s="15" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B622" s="15" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B623" s="15" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -10886,26 +10883,26 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="13" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B628" s="15" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="13" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B629" s="15" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B630" s="15" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -10982,66 +10979,66 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="13" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B640" s="15" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="13" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B641" s="15" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="13" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B642" s="15" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="13" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B643" s="15" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="13" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B644" s="15" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="13" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B645" s="15" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="13" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B646" s="15" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="13" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B647" s="15" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -11078,26 +11075,26 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="13" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B652" s="15" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="13" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B653" s="15" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="13" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B654" s="15" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -11174,66 +11171,66 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B664" s="15" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B665" s="15" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B666" s="15" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="13" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B667" s="15" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="13" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B668" s="15" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="13" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B669" s="15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="13" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B670" s="15" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="13" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B671" s="15" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -11270,26 +11267,26 @@
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="13" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B676" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="13" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B677" s="15" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="13" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B678" s="15" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -11366,66 +11363,66 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="14" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B688" s="15" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="14" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B689" s="15" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="14" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B690" s="15" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="14" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B691" s="15" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="14" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B692" s="15" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="14" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B693" s="15" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="14" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B694" s="15" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="14" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B695" s="15" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -11462,26 +11459,26 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="13" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B700" s="15" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="13" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B701" s="15" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B702" s="15" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -11558,66 +11555,66 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B712" s="15" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="13" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B713" s="15" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="13" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B714" s="15" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="13" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B715" s="15" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B716" s="15" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="13" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B717" s="15" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="13" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B718" s="15" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="13" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B719" s="15" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -11654,26 +11651,26 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="13" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B724" s="15" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="13" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B725" s="15" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="13" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B726" s="15" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -11750,66 +11747,66 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="13" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B736" s="15" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="13" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B737" s="15" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="13" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B738" s="15" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="13" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B739" s="15" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B740" s="15" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="13" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B741" s="15" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="13" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B742" s="15" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B743" s="15" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -11846,1103 +11843,1104 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B748" s="15" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="13" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B749" s="15" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="13" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B750" s="15" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="7" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B751" s="10"/>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B752" s="11"/>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="7" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B753" s="10"/>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="7" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B754" s="10"/>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="7" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B755" s="10"/>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="6" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B756" s="10"/>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="6" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B757" s="10"/>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="6" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B758" s="10"/>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="6" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B759" s="10"/>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="13" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B760" s="15"/>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="13" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B761" s="15"/>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="13" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B762" s="15"/>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="13" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B763" s="15"/>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="13" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B764" s="15"/>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="13" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B765" s="15"/>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="13" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B766" s="15"/>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="13" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B767" s="15"/>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B768" s="10"/>
     </row>
     <row r="769" spans="1:2" ht="33.75" thickBot="1">
       <c r="A769" s="8" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B769" s="12"/>
     </row>
     <row r="770" spans="1:2" ht="33.75">
       <c r="A770" s="5" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B770" s="9" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B771" s="10" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="13" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B772" s="15" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="13" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B773" s="15" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="13" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B774" s="15" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="7" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B775" s="10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="6" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B776" s="11" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="7" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B777" s="10" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="7" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B778" s="10" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="7" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B779" s="10" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="6" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B780" s="10" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="6" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B781" s="10" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="6" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B782" s="10" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="6" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B783" s="10" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="13" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B784" s="15" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="13" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B785" s="15" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="13" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B786" s="15" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="13" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B787" s="15" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="13" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B788" s="15" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="13" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B789" s="15" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="13" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B790" s="15" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="13" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B791" s="15" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B792" s="10" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="793" spans="1:2" ht="33.75" thickBot="1">
       <c r="A793" s="8" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B793" s="12" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="794" spans="1:2" ht="33.75">
       <c r="A794" s="5" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B794" s="9" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="6" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B795" s="10" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="13" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B796" s="15" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="13" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B797" s="15" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" s="13" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B798" s="15" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="7" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B799" s="10" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="6" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B800" s="11" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="7" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B801" s="10" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="7" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B802" s="10" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="7" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B803" s="10" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B804" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B805" s="10" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="6" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B806" s="10" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="6" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B807" s="10" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B808" s="15" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="13" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B809" s="15" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="13" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B810" s="15" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="13" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B811" s="15" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="13" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B812" s="15" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="13" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B813" s="15" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B814" s="15" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B815" s="15" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="6" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B816" s="10" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="817" spans="1:2" ht="33.75" thickBot="1">
       <c r="A817" s="8" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B817" s="12" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="33.75">
       <c r="A818" s="5" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B818" s="9" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" s="6" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B819" s="10" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B820" s="15" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B821" s="15" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" s="13" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B822" s="15" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" s="7" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B823" s="10" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" s="6" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B824" s="11" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" s="7" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B825" s="10" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" s="7" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B826" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" s="7" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B827" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" s="6" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B828" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" s="6" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B829" s="10" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" s="6" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B830" s="10" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" s="6" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B831" s="10" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" s="13" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B832" s="15" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" s="13" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B833" s="15" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" s="13" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B834" s="15" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" s="13" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B835" s="15" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B836" s="15" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" s="13" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B837" s="15" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" s="13" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B838" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" s="13" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B839" s="15" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" s="6" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B840" s="10" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="841" spans="1:2" ht="33.75" thickBot="1">
       <c r="A841" s="8" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B841" s="12" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="842" spans="1:2" ht="33.75">
       <c r="A842" s="5" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B842" s="9" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" s="6" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B843" s="10" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" s="13" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B844" s="15" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" s="13" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B845" s="15" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" s="13" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B846" s="15" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" s="7" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B847" s="10" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" s="6" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B848" s="11" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" s="7" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B849" s="10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" s="7" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B850" s="10" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" s="7" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B851" s="10" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" s="6" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B852" s="10" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" s="6" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B853" s="10" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" s="6" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B854" s="10" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" s="6" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B855" s="10" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" s="13" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B856" s="15" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" s="13" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B857" s="15" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" s="13" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B858" s="15" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" s="13" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B859" s="15" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B860" s="15" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" s="13" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B861" s="15" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" s="13" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B862" s="15" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" s="13" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B863" s="15" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" s="6" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B864" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="865" spans="1:2" ht="33.75" thickBot="1">
       <c r="A865" s="8" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B865" s="12" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="866" spans="1:2" ht="33.75">
       <c r="A866" s="5" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B866" s="9" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" s="6" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B867" s="10" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" s="13" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B868" s="15" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" s="13" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B869" s="15" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" s="13" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B870" s="15" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" s="7" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B871" s="10" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" s="6" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B872" s="11" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" s="7" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B873" s="10" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" s="7" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B874" s="10" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" s="7" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B875" s="10" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" s="6" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B876" s="10" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" s="6" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B877" s="10" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" s="6" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B878" s="10" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" s="6" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B879" s="10" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" s="13" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B880" s="15" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" s="13" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B881" s="15" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" s="13" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B882" s="15" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" s="13" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B883" s="15" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" s="13" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B884" s="15" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" s="13" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B885" s="15" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" s="13" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B886" s="15" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" s="13" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B887" s="15" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" s="6" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B888" s="10" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="889" spans="1:2" ht="33.75" thickBot="1">
       <c r="A889" s="8" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B889" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B889" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/emsileimuhtelife.xlsx
+++ b/public/emsileimuhtelife.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22289A53-0912-4D18-B75D-5D9403ABAD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2256942F-79D0-4C3B-B67C-FA0D7E390D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="EMSİLE24SİGAÇEKİMLERİ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EMSİLE24SİGAÇEKİMLERİ!$A$1:$B$482</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EMSİLE24SİGAÇEKİMLERİ!$A$1:$B$889</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="1766">
   <si>
     <t>arabic_word</t>
   </si>
@@ -5278,6 +5278,63 @@
   </si>
   <si>
     <t>Daha fazla korktu</t>
+  </si>
+  <si>
+    <t>Üzülmedi</t>
+  </si>
+  <si>
+    <t>Henüz üzülmedi</t>
+  </si>
+  <si>
+    <t>Üzülmüyor</t>
+  </si>
+  <si>
+    <t>Üzülmez</t>
+  </si>
+  <si>
+    <t>Asla üzülmez</t>
+  </si>
+  <si>
+    <t>Üzülmesin</t>
+  </si>
+  <si>
+    <t>Üzülsün</t>
+  </si>
+  <si>
+    <t>Üzül</t>
+  </si>
+  <si>
+    <t>Üzülme</t>
+  </si>
+  <si>
+    <t>Üzülme zamanı,mekanı,üzülmek</t>
+  </si>
+  <si>
+    <t>Üzülme aleti</t>
+  </si>
+  <si>
+    <t>Bir kere üzülmek</t>
+  </si>
+  <si>
+    <t>Bir çeşit üzülmek</t>
+  </si>
+  <si>
+    <t>Üzülmecik</t>
+  </si>
+  <si>
+    <t>Üzülmeye mensub</t>
+  </si>
+  <si>
+    <t>Çokça üzülen</t>
+  </si>
+  <si>
+    <t>Ziyade üzülen</t>
+  </si>
+  <si>
+    <t>Acayip üzüldü</t>
+  </si>
+  <si>
+    <t>ne acayip üzüldü</t>
   </si>
 </sst>
 </file>
@@ -5858,8 +5915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
   <dimension ref="A1:B889"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="33"/>
@@ -11872,115 +11929,153 @@
       <c r="A751" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="B751" s="10"/>
+      <c r="B751" s="10" t="s">
+        <v>1747</v>
+      </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="6" t="s">
         <v>1493</v>
       </c>
-      <c r="B752" s="11"/>
+      <c r="B752" s="11" t="s">
+        <v>1748</v>
+      </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="7" t="s">
         <v>1494</v>
       </c>
-      <c r="B753" s="10"/>
+      <c r="B753" s="10" t="s">
+        <v>1749</v>
+      </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="7" t="s">
         <v>1495</v>
       </c>
-      <c r="B754" s="10"/>
+      <c r="B754" s="10" t="s">
+        <v>1750</v>
+      </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="7" t="s">
         <v>1496</v>
       </c>
-      <c r="B755" s="10"/>
+      <c r="B755" s="10" t="s">
+        <v>1751</v>
+      </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="6" t="s">
         <v>1497</v>
       </c>
-      <c r="B756" s="10"/>
+      <c r="B756" s="10" t="s">
+        <v>1753</v>
+      </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="6" t="s">
         <v>1498</v>
       </c>
-      <c r="B757" s="10"/>
+      <c r="B757" s="10" t="s">
+        <v>1752</v>
+      </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="6" t="s">
         <v>1499</v>
       </c>
-      <c r="B758" s="10"/>
+      <c r="B758" s="10" t="s">
+        <v>1754</v>
+      </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="6" t="s">
         <v>1500</v>
       </c>
-      <c r="B759" s="10"/>
+      <c r="B759" s="10" t="s">
+        <v>1755</v>
+      </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="13" t="s">
         <v>1501</v>
       </c>
-      <c r="B760" s="15"/>
+      <c r="B760" s="15" t="s">
+        <v>1756</v>
+      </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="13" t="s">
         <v>1502</v>
       </c>
-      <c r="B761" s="15"/>
+      <c r="B761" s="15" t="s">
+        <v>1757</v>
+      </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="13" t="s">
         <v>1503</v>
       </c>
-      <c r="B762" s="15"/>
+      <c r="B762" s="15" t="s">
+        <v>1758</v>
+      </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="13" t="s">
         <v>1504</v>
       </c>
-      <c r="B763" s="15"/>
+      <c r="B763" s="15" t="s">
+        <v>1759</v>
+      </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="13" t="s">
         <v>1505</v>
       </c>
-      <c r="B764" s="15"/>
+      <c r="B764" s="15" t="s">
+        <v>1760</v>
+      </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="13" t="s">
         <v>1506</v>
       </c>
-      <c r="B765" s="15"/>
+      <c r="B765" s="15" t="s">
+        <v>1761</v>
+      </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="13" t="s">
         <v>1507</v>
       </c>
-      <c r="B766" s="15"/>
+      <c r="B766" s="15" t="s">
+        <v>1762</v>
+      </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="13" t="s">
         <v>1508</v>
       </c>
-      <c r="B767" s="15"/>
+      <c r="B767" s="15" t="s">
+        <v>1763</v>
+      </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="6" t="s">
         <v>1509</v>
       </c>
-      <c r="B768" s="10"/>
+      <c r="B768" s="10" t="s">
+        <v>1764</v>
+      </c>
     </row>
     <row r="769" spans="1:2" ht="33.75" thickBot="1">
       <c r="A769" s="8" t="s">
         <v>1510</v>
       </c>
-      <c r="B769" s="12"/>
+      <c r="B769" s="12" t="s">
+        <v>1765</v>
+      </c>
     </row>
     <row r="770" spans="1:2" ht="33.75">
       <c r="A770" s="5" t="s">
@@ -12943,6 +13038,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B889" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/emsileimuhtelife.xlsx
+++ b/public/emsileimuhtelife.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B782C17-10E2-4681-B531-DFF888160FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CD75E5-56DC-4973-B02D-3D54B7A48024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="EMSİLE24SİGAÇEKİMLERİ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EMSİLE24SİGAÇEKİMLERİ!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EMSİLE24SİGAÇEKİMLERİ!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="1839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="1840">
   <si>
     <t>arabic_word</t>
   </si>
@@ -5681,6 +5681,9 @@
   </si>
   <si>
     <t>Fi’l-i taaccüb-i sânî</t>
+  </si>
+  <si>
+    <t>kok_kelime_renk</t>
   </si>
 </sst>
 </file>
@@ -6332,19 +6335,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
-  <dimension ref="A1:C913"/>
+  <dimension ref="A1:D913"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A903" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:C913"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="33"/>
   <cols>
     <col min="1" max="1" width="27.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="48.375" style="2"/>
+    <col min="2" max="3" width="48.375" style="2"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="16384" width="48.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75">
+    <row r="1" spans="1:4" ht="33.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6354,8 +6359,11 @@
       <c r="C1" s="2" t="s">
         <v>1814</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="33.75">
+      <c r="D1" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33.75">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -6366,7 +6374,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -6377,7 +6385,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="13" t="s">
         <v>807</v>
       </c>
@@ -6388,7 +6396,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
         <v>808</v>
       </c>
@@ -6399,7 +6407,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
         <v>809</v>
       </c>
@@ -6410,7 +6418,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -6421,7 +6429,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -6432,7 +6440,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -6443,7 +6451,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -6454,7 +6462,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -6465,7 +6473,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -6476,7 +6484,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -6487,7 +6495,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -6498,7 +6506,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -6509,7 +6517,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="13" t="s">
         <v>810</v>
       </c>
@@ -16388,7 +16396,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}"/>
+  <autoFilter ref="A1:E1" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/emsileimuhtelife.xlsx
+++ b/public/emsileimuhtelife.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCA7D90-A140-4DE9-A152-36403CE68CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E3A89B-4053-402D-AFB7-0B8A8936391C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{A60FED77-E5F4-423A-BB2D-69F221F91529}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60FED77-E5F4-423A-BB2D-69F221F91529}"/>
   </bookViews>
   <sheets>
     <sheet name="muhammede" sheetId="1" r:id="rId1"/>
@@ -7971,9 +7971,6 @@
     <t>Evcelü</t>
   </si>
   <si>
-    <t>Dha fazla korktu</t>
-  </si>
-  <si>
     <t>مَاأَوْجَلَهُ</t>
   </si>
   <si>
@@ -8005,6 +8002,9 @@
   </si>
   <si>
     <t>kelime_cinsi</t>
+  </si>
+  <si>
+    <t>Daha fazla korktu</t>
   </si>
 </sst>
 </file>
@@ -8720,8 +8720,8 @@
   </sheetPr>
   <dimension ref="A1:D889"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A866" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="I882" sqref="I882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="33"/>
@@ -8735,13 +8735,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="105.75" thickBot="1">
       <c r="A1" s="23" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>2653</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" t="s">
         <v>2654</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2655</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="21" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B688" s="11" t="s">
         <v>2075</v>
@@ -21017,16 +21017,16 @@
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="18" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B881" s="11" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="C881" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D881" s="10" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -21104,7 +21104,7 @@
         <v>2642</v>
       </c>
       <c r="B887" s="11" t="s">
-        <v>2644</v>
+        <v>2655</v>
       </c>
       <c r="C887" s="12" t="s">
         <v>66</v>
@@ -21115,30 +21115,30 @@
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="17" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="B888" s="8" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="C888" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D888" s="7" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="889" spans="1:4" s="2" customFormat="1" ht="33.75" thickBot="1">
       <c r="A889" s="20" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B889" s="15" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="C889" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D889" s="14" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
   </sheetData>

--- a/public/emsileimuhtelife.xlsx
+++ b/public/emsileimuhtelife.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E3A89B-4053-402D-AFB7-0B8A8936391C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B609A36D-2737-4361-84B1-39D5995ADBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60FED77-E5F4-423A-BB2D-69F221F91529}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="muhammede" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">muhammede!$A$1:$WVK$505</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">muhammede!$A$1:$WVK$889</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -8011,7 +8011,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -8073,20 +8073,6 @@
       <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Arabic Typesetting"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -8317,7 +8303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8374,12 +8360,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8720,8 +8700,8 @@
   </sheetPr>
   <dimension ref="A1:D889"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A866" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I882" sqref="I882"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="33"/>
@@ -8733,11 +8713,11 @@
     <col min="5" max="16384" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="105.75" thickBot="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" t="s">
         <v>2652</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" t="s">
         <v>2653</v>
       </c>
       <c r="C1" t="s">
@@ -21143,7 +21123,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:WVK505" xr:uid="{84DEDEDC-50F0-45BB-9332-E0572460D5D1}"/>
+  <autoFilter ref="A1:WVK889" xr:uid="{84DEDEDC-50F0-45BB-9332-E0572460D5D1}"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="20" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
